--- a/AAII_Financials/Quarterly/SDC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SDC_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="92">
   <si>
     <t>SDC</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,142 +665,180 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43738</v>
+      </c>
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>196700</v>
+      </c>
+      <c r="E8" s="3">
+        <v>196700</v>
+      </c>
+      <c r="F8" s="3">
+        <v>180200</v>
+      </c>
+      <c r="G8" s="3">
         <v>373500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="H8" s="3">
         <v>177700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="I8" s="3">
         <v>128500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="J8" s="3">
         <v>119700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="K8" s="3">
         <v>106600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="L8" s="3">
         <v>68400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="M8" s="3">
         <v>53700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="N8" s="3">
         <v>54300</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>59800</v>
+      </c>
+      <c r="E9" s="3">
+        <v>53400</v>
+      </c>
+      <c r="F9" s="3">
+        <v>41400</v>
+      </c>
+      <c r="G9" s="3">
         <v>83600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="H9" s="3">
         <v>48900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="I9" s="3">
         <v>37700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="J9" s="3">
         <v>35900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="K9" s="3">
         <v>32800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="L9" s="3">
         <v>27600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="M9" s="3">
         <v>22800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="N9" s="3">
         <v>22000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>136900</v>
+      </c>
+      <c r="E10" s="3">
+        <v>143300</v>
+      </c>
+      <c r="F10" s="3">
+        <v>138800</v>
+      </c>
+      <c r="G10" s="3">
         <v>289900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="H10" s="3">
         <v>128800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="I10" s="3">
         <v>90800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="J10" s="3">
         <v>83800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="K10" s="3">
         <v>73800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="L10" s="3">
         <v>40800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="M10" s="3">
         <v>30900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="N10" s="3">
         <v>32300</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +850,11 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,8 +882,17 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,28 +920,37 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>29600</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -899,37 +958,55 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+        <v>5900</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,66 +1015,87 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>293100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>289000</v>
+      </c>
+      <c r="F17" s="3">
+        <v>562600</v>
+      </c>
+      <c r="G17" s="3">
         <v>418900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="H17" s="3">
         <v>194100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="I17" s="3">
         <v>151300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="J17" s="3">
         <v>123400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="K17" s="3">
         <v>108300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="L17" s="3">
         <v>85800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="M17" s="3">
         <v>62300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="N17" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-96400</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-92300</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-382400</v>
+      </c>
+      <c r="G18" s="3">
         <v>-45400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="H18" s="3">
         <v>-16400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="I18" s="3">
         <v>-22800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="J18" s="3">
         <v>-3700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="K18" s="3">
         <v>-1700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="L18" s="3">
         <v>-17400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="M18" s="3">
         <v>-8600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="N18" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,153 +1107,201 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-5000</v>
       </c>
       <c r="E20" s="3">
+        <v>700</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-6500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="K20" s="3">
         <v>-8600</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-90000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-80500</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-376300</v>
+      </c>
+      <c r="G21" s="3">
         <v>-35700</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="I21" s="3">
         <v>-18900</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="K21" s="3">
         <v>-7600</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F22" s="3">
+        <v>4300</v>
+      </c>
+      <c r="G22" s="3">
         <v>7400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="H22" s="3">
         <v>4000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="I22" s="3">
         <v>3200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="J22" s="3">
         <v>4600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="K22" s="3">
         <v>3500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="L22" s="3">
         <v>2300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="M22" s="3">
         <v>800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="N22" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-105400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-95700</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-387100</v>
+      </c>
+      <c r="G23" s="3">
         <v>-52800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="H23" s="3">
         <v>-20500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="I23" s="3">
         <v>-25900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="J23" s="3">
         <v>-14900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="K23" s="3">
         <v>-13800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="L23" s="3">
         <v>-19800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="M23" s="3">
         <v>-9400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="N23" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="F24" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G24" s="3">
         <v>100</v>
       </c>
       <c r="H24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I24" s="3">
         <v>100</v>
       </c>
       <c r="J24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="L24" s="3">
+        <v>100</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1329,93 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-107400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-97300</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-387600</v>
+      </c>
+      <c r="G26" s="3">
         <v>-52900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="H26" s="3">
         <v>-20500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="I26" s="3">
         <v>-26000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="J26" s="3">
         <v>-15000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="K26" s="3">
         <v>-14000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="L26" s="3">
         <v>-19800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="M26" s="3">
         <v>-9400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="N26" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-29300</v>
       </c>
       <c r="E27" s="3">
+        <v>-26200</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-88300</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>-20500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="I27" s="3">
         <v>-26000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="J27" s="3">
         <v>-15000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="K27" s="3">
         <v>-14000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="L27" s="3">
         <v>-19800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="M27" s="3">
         <v>-9400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="N27" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1443,17 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1481,17 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1519,17 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,66 +1557,93 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="E32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F32" s="3">
+        <v>400</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>6500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="K32" s="3">
         <v>8600</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-29300</v>
       </c>
       <c r="E33" s="3">
+        <v>-26200</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-88300</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>-20500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="I33" s="3">
         <v>-26000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="J33" s="3">
         <v>-15000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="K33" s="3">
         <v>-14000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="L33" s="3">
         <v>-19800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="M33" s="3">
         <v>-9400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="N33" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1671,98 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-29300</v>
       </c>
       <c r="E35" s="3">
+        <v>-26200</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-88300</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>-20500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="I35" s="3">
         <v>-26000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="J35" s="3">
         <v>-15000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="K35" s="3">
         <v>-14000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="L35" s="3">
         <v>-19800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="M35" s="3">
         <v>-9400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="N35" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
+        <v>43738</v>
+      </c>
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1774,11 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,23 +1790,26 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>224400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>318500</v>
+      </c>
+      <c r="F41" s="3">
+        <v>547600</v>
+      </c>
+      <c r="G41" s="3">
         <v>149100</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>8</v>
       </c>
@@ -1562,8 +1822,17 @@
       <c r="K41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,23 +1860,32 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>247000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>239400</v>
+      </c>
+      <c r="F43" s="3">
+        <v>224400</v>
+      </c>
+      <c r="G43" s="3">
         <v>181800</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>8</v>
       </c>
@@ -1620,23 +1898,32 @@
       <c r="K43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>28200</v>
+      </c>
+      <c r="E44" s="3">
+        <v>18400</v>
+      </c>
+      <c r="F44" s="3">
+        <v>14600</v>
+      </c>
+      <c r="G44" s="3">
         <v>13700</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H44" s="3" t="s">
         <v>8</v>
       </c>
@@ -1649,23 +1936,32 @@
       <c r="K44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E45" s="3">
+        <v>14200</v>
+      </c>
+      <c r="F45" s="3">
+        <v>12000</v>
+      </c>
+      <c r="G45" s="3">
         <v>11600</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>8</v>
       </c>
@@ -1678,23 +1974,32 @@
       <c r="K45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>510000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>590500</v>
+      </c>
+      <c r="F46" s="3">
+        <v>798500</v>
+      </c>
+      <c r="G46" s="3">
         <v>356200</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>8</v>
       </c>
@@ -1707,23 +2012,32 @@
       <c r="K46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>98300</v>
+      </c>
+      <c r="E47" s="3">
+        <v>106300</v>
+      </c>
+      <c r="F47" s="3">
+        <v>87300</v>
+      </c>
+      <c r="G47" s="3">
         <v>93300</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>8</v>
       </c>
@@ -1736,23 +2050,32 @@
       <c r="K47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>227800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>177500</v>
+      </c>
+      <c r="F48" s="3">
+        <v>119100</v>
+      </c>
+      <c r="G48" s="3">
         <v>86800</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>8</v>
       </c>
@@ -1765,22 +2088,31 @@
       <c r="K48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="3">
         <v>6300</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>8</v>
+      <c r="G49" s="3">
+        <v>6300</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>8</v>
@@ -1794,8 +2126,17 @@
       <c r="K49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +2164,17 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,37 +2202,55 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>11600</v>
       </c>
       <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+        <v>11300</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,23 +2278,32 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>847800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>885600</v>
+      </c>
+      <c r="F54" s="3">
+        <v>1011200</v>
+      </c>
+      <c r="G54" s="3">
         <v>542500</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>8</v>
       </c>
@@ -1939,8 +2316,17 @@
       <c r="K54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2338,11 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,23 +2354,26 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>59700</v>
+      </c>
+      <c r="E57" s="3">
+        <v>52700</v>
+      </c>
+      <c r="F57" s="3">
+        <v>40600</v>
+      </c>
+      <c r="G57" s="3">
         <v>49800</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>8</v>
       </c>
@@ -1994,23 +2386,32 @@
       <c r="K57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>37500</v>
+      </c>
+      <c r="E58" s="3">
+        <v>35400</v>
+      </c>
+      <c r="F58" s="3">
+        <v>29700</v>
+      </c>
+      <c r="G58" s="3">
         <v>33500</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>8</v>
       </c>
@@ -2023,23 +2424,32 @@
       <c r="K58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>120600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>118800</v>
+      </c>
+      <c r="F59" s="3">
+        <v>155500</v>
+      </c>
+      <c r="G59" s="3">
         <v>88000</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>8</v>
       </c>
@@ -2052,23 +2462,32 @@
       <c r="K59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>217900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>206900</v>
+      </c>
+      <c r="F60" s="3">
+        <v>225800</v>
+      </c>
+      <c r="G60" s="3">
         <v>171300</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>8</v>
       </c>
@@ -2081,23 +2500,32 @@
       <c r="K60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>183900</v>
+      </c>
+      <c r="E61" s="3">
+        <v>173200</v>
+      </c>
+      <c r="F61" s="3">
+        <v>189600</v>
+      </c>
+      <c r="G61" s="3">
         <v>171500</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2110,23 +2538,32 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>80900</v>
+      </c>
+      <c r="E62" s="3">
+        <v>47400</v>
+      </c>
+      <c r="F62" s="3">
+        <v>45200</v>
+      </c>
+      <c r="G62" s="3">
         <v>600</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>8</v>
       </c>
@@ -2139,8 +2576,17 @@
       <c r="K62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2614,17 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2652,17 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,23 +2690,32 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>530400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>552500</v>
+      </c>
+      <c r="F66" s="3">
+        <v>657600</v>
+      </c>
+      <c r="G66" s="3">
         <v>343300</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>8</v>
       </c>
@@ -2255,8 +2728,17 @@
       <c r="K66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2750,11 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2782,17 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,23 +2820,32 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
         <v>425200</v>
       </c>
-      <c r="E70" s="3">
-        <v>0</v>
-      </c>
-      <c r="F70" s="3">
-        <v>0</v>
-      </c>
-      <c r="G70" s="3">
-        <v>0</v>
-      </c>
       <c r="H70" s="3">
         <v>0</v>
       </c>
@@ -2355,8 +2858,17 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,23 +2896,32 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-143800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-114500</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-88300</v>
+      </c>
+      <c r="G72" s="3">
         <v>-226000</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>8</v>
       </c>
@@ -2413,8 +2934,17 @@
       <c r="K72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2972,17 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +3010,17 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,23 +3048,32 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>317300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>333100</v>
+      </c>
+      <c r="F76" s="3">
+        <v>353600</v>
+      </c>
+      <c r="G76" s="3">
         <v>-226000</v>
       </c>
-      <c r="E76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>8</v>
       </c>
@@ -2529,8 +3086,17 @@
       <c r="K76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +3124,98 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
+        <v>43738</v>
+      </c>
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-29300</v>
       </c>
       <c r="E81" s="3">
+        <v>-26200</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-88300</v>
+      </c>
+      <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>-20500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="I81" s="3">
         <v>-26000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="J81" s="3">
         <v>-15000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="K81" s="3">
         <v>-14000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="L81" s="3">
         <v>-19800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="M81" s="3">
         <v>-9400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="N81" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,37 +3227,49 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E83" s="3">
+        <v>11100</v>
+      </c>
+      <c r="F83" s="3">
+        <v>6500</v>
+      </c>
+      <c r="G83" s="3">
         <v>9700</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
+        <v>4700</v>
+      </c>
+      <c r="I83" s="3">
         <v>3900</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>8</v>
+      <c r="J83" s="3">
+        <v>2200</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +3297,17 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +3335,17 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +3373,17 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +3411,17 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,37 +3449,55 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-70400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-141200</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-94100</v>
+      </c>
+      <c r="G89" s="3">
         <v>-97900</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
+        <v>-38800</v>
+      </c>
+      <c r="I89" s="3">
         <v>-31600</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>8</v>
+      <c r="J89" s="3">
+        <v>-35700</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,37 +3509,49 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-28100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-40000</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-34500</v>
+      </c>
+      <c r="G91" s="3">
         <v>-31900</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
+        <v>-20600</v>
+      </c>
+      <c r="I91" s="3">
         <v>-10400</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>8</v>
+      <c r="J91" s="3">
+        <v>-3400</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3579,17 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,37 +3617,55 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-28100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-40000</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-28200</v>
+      </c>
+      <c r="G94" s="3">
         <v>-38100</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
+        <v>-20600</v>
+      </c>
+      <c r="I94" s="3">
         <v>-21900</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>8</v>
+      <c r="J94" s="3">
+        <v>-14000</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3677,11 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3709,17 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3747,17 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3785,17 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,37 +3823,55 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-47900</v>
+      </c>
+      <c r="F100" s="3">
+        <v>520800</v>
+      </c>
+      <c r="G100" s="3">
         <v>-28800</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="I100" s="3">
         <v>88100</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>8</v>
+      <c r="J100" s="3">
+        <v>318900</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3153,33 +3899,51 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-94000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-229100</v>
+      </c>
+      <c r="F102" s="3">
+        <v>398500</v>
+      </c>
+      <c r="G102" s="3">
         <v>-164800</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
+        <v>-72700</v>
+      </c>
+      <c r="I102" s="3">
         <v>34600</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>8</v>
+      <c r="J102" s="3">
+        <v>269200</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SDC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SDC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="92">
   <si>
     <t>SDC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,180 +665,193 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>196700</v>
+        <v>107100</v>
       </c>
       <c r="E8" s="3">
         <v>196700</v>
       </c>
       <c r="F8" s="3">
+        <v>196700</v>
+      </c>
+      <c r="G8" s="3">
         <v>180200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>373500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>177700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>128500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>119700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>106600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>68400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>53700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>54300</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>48800</v>
+      </c>
+      <c r="E9" s="3">
         <v>59800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>53400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>41400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>83600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>48900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>37700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>35900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>32800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>27600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>22800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>22000</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>58300</v>
+      </c>
+      <c r="E10" s="3">
         <v>136900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>143300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>138800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>289900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>128800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>90800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>83800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>73800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>40800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>30900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>32300</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -853,8 +866,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -891,8 +905,11 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,31 +946,34 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="D14" s="3">
+        <v>42900</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>29600</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -967,17 +987,20 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E15" s="3">
         <v>5900</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F15" s="3" t="s">
         <v>8</v>
       </c>
@@ -993,8 +1016,8 @@
       <c r="J15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
@@ -1005,8 +1028,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1018,84 +1044,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>194900</v>
+      </c>
+      <c r="E17" s="3">
         <v>293100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>289000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>562600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>418900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>194100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>151300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>123400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>108300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>85800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>62300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-87800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-96400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-92300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-382400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-45400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-16400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-22800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-17400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-8600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1110,180 +1143,193 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-5000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-400</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-6500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-8600</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-72100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-90000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-80500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-376300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-35700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-11800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-18900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-8000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-7600</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E22" s="3">
         <v>4000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>4100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>4300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>7400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>4000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>3200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>4600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>3500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-96100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-105400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-95700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-387100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-52800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-20500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-25900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-14900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-13800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-19800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-9400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E24" s="3">
         <v>2000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J24" s="3">
         <v>100</v>
@@ -1295,13 +1341,16 @@
         <v>100</v>
       </c>
       <c r="M24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,84 +1387,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-94700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-107400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-97300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-387600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-52900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-20500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-26000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-15000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-14000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-19800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-9400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-26800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-29300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-26200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-88300</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>-20500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-26000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-15000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-14000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-19800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-9400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,8 +1510,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1490,8 +1551,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1566,84 +1633,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E32" s="3">
         <v>5000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>400</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>6500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>8600</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-26800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-29300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-26200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-88300</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>-20500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-26000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-15000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-14000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-19800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-9400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1680,89 +1756,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-26800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-29300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-26200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-88300</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>-20500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-26000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-15000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-14000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-19800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-9400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1777,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1793,26 +1879,27 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>389000</v>
+      </c>
+      <c r="E41" s="3">
         <v>224400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>318500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>547600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>149100</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>8</v>
       </c>
@@ -1831,8 +1918,11 @@
       <c r="N41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1869,26 +1959,29 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>232300</v>
+      </c>
+      <c r="E43" s="3">
         <v>247000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>239400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>224400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>181800</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>8</v>
       </c>
@@ -1907,26 +2000,29 @@
       <c r="N43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>28600</v>
+      </c>
+      <c r="E44" s="3">
         <v>28200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>18400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>14600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>13700</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I44" s="3" t="s">
         <v>8</v>
       </c>
@@ -1945,26 +2041,29 @@
       <c r="N44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E45" s="3">
         <v>10400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>14200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>12000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>11600</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>8</v>
       </c>
@@ -1983,26 +2082,29 @@
       <c r="N45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>666800</v>
+      </c>
+      <c r="E46" s="3">
         <v>510000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>590500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>798500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>356200</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>8</v>
       </c>
@@ -2021,26 +2123,29 @@
       <c r="N46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>79500</v>
+      </c>
+      <c r="E47" s="3">
         <v>98300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>106300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>87300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>93300</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>8</v>
       </c>
@@ -2059,26 +2164,29 @@
       <c r="N47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>208000</v>
+      </c>
+      <c r="E48" s="3">
         <v>227800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>177500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>119100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>86800</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>8</v>
       </c>
@@ -2097,8 +2205,11 @@
       <c r="N48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2108,14 +2219,14 @@
       <c r="E49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F49" s="3">
-        <v>6300</v>
+      <c r="F49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G49" s="3">
         <v>6300</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>8</v>
+      <c r="H49" s="3">
+        <v>6300</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>8</v>
@@ -2135,8 +2246,11 @@
       <c r="N49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2173,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2211,20 +2328,23 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E52" s="3">
         <v>11600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>11300</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>8</v>
       </c>
@@ -2237,8 +2357,8 @@
       <c r="J52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -2249,8 +2369,11 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2287,26 +2410,29 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>965600</v>
+      </c>
+      <c r="E54" s="3">
         <v>847800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>885600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1011200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>542500</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>8</v>
       </c>
@@ -2325,8 +2451,11 @@
       <c r="N54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2357,26 +2487,27 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>34500</v>
+      </c>
+      <c r="E57" s="3">
         <v>59700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>52700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>40600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>49800</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>8</v>
       </c>
@@ -2395,26 +2526,29 @@
       <c r="N57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>30800</v>
+      </c>
+      <c r="E58" s="3">
         <v>37500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>35400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>29700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>33500</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>8</v>
       </c>
@@ -2433,26 +2567,29 @@
       <c r="N58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>134700</v>
+      </c>
+      <c r="E59" s="3">
         <v>120600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>118800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>155500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>88000</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>8</v>
       </c>
@@ -2471,26 +2608,29 @@
       <c r="N59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>200000</v>
+      </c>
+      <c r="E60" s="3">
         <v>217900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>206900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>225800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>171300</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>8</v>
       </c>
@@ -2509,26 +2649,29 @@
       <c r="N60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>389500</v>
+      </c>
+      <c r="E61" s="3">
         <v>183900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>173200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>189600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>171500</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2547,26 +2690,29 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>78100</v>
+      </c>
+      <c r="E62" s="3">
         <v>80900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>47400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>45200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>600</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>8</v>
       </c>
@@ -2585,8 +2731,11 @@
       <c r="N62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2623,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2661,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2699,26 +2854,29 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>647600</v>
+      </c>
+      <c r="E66" s="3">
         <v>530400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>552500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>657600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>343300</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>8</v>
       </c>
@@ -2737,8 +2895,11 @@
       <c r="N66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2753,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2791,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2829,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2844,11 +3012,11 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3">
         <v>425200</v>
       </c>
-      <c r="H70" s="3">
-        <v>0</v>
-      </c>
       <c r="I70" s="3">
         <v>0</v>
       </c>
@@ -2867,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2905,26 +3076,29 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-152900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-143800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-114500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-88300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-226000</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>8</v>
       </c>
@@ -2943,8 +3117,11 @@
       <c r="N72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2981,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3019,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3057,26 +3240,29 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>318000</v>
+      </c>
+      <c r="E76" s="3">
         <v>317300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>333100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>353600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-226000</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>8</v>
       </c>
@@ -3095,8 +3281,11 @@
       <c r="N76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3133,89 +3322,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-26800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-29300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-26200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-88300</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>-20500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-26000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-15000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-14000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-19800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-9400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3230,35 +3428,36 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E83" s="3">
         <v>11400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>11100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>6500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>9700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>4700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>3900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>2200</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>8</v>
       </c>
@@ -3268,8 +3467,11 @@
       <c r="N83" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3306,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3344,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3382,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3420,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3458,35 +3672,38 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-70400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-141200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-94100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-97900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-38800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-31600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-35700</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>8</v>
       </c>
@@ -3496,8 +3713,11 @@
       <c r="N89" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3512,35 +3732,36 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-19700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-28100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-40000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-34500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-31900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-20600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-10400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3400</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>8</v>
       </c>
@@ -3550,8 +3771,11 @@
       <c r="N91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3588,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3626,35 +3853,38 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-19700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-28100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-40000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-28200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-38100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-20600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-21900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-14000</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>8</v>
       </c>
@@ -3664,8 +3894,11 @@
       <c r="N94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3680,8 +3913,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3718,8 +3952,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3756,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3794,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3832,35 +4075,38 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>199700</v>
+      </c>
+      <c r="E100" s="3">
         <v>4500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-47900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>520800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-28800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-13400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>88100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>318900</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>8</v>
       </c>
@@ -3870,8 +4116,11 @@
       <c r="N100" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3908,35 +4157,38 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>164500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-94000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-229100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>398500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-164800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-72700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>34600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>269200</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>8</v>
       </c>
@@ -3944,6 +4196,9 @@
         <v>8</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SDC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SDC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="92">
   <si>
     <t>SDC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,193 +665,206 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>168500</v>
+      </c>
+      <c r="E8" s="3">
         <v>107100</v>
-      </c>
-      <c r="E8" s="3">
-        <v>196700</v>
       </c>
       <c r="F8" s="3">
         <v>196700</v>
       </c>
       <c r="G8" s="3">
+        <v>196700</v>
+      </c>
+      <c r="H8" s="3">
         <v>180200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>373500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>177700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>128500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>119700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>106600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>68400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>53700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>54300</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>49800</v>
+      </c>
+      <c r="E9" s="3">
         <v>48800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>59800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>53400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>41400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>83600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>48900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>37700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>35900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>32800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>27600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>22800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>22000</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>118700</v>
+      </c>
+      <c r="E10" s="3">
         <v>58300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>136900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>143300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>138800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>289900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>128800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>90800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>83800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>73800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>40800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>30900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>32300</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -867,8 +880,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +922,11 @@
       <c r="O12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,34 +966,37 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E14" s="3">
         <v>42900</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>29600</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -990,20 +1010,23 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E15" s="3">
         <v>8000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>5900</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G15" s="3" t="s">
         <v>8</v>
       </c>
@@ -1019,8 +1042,8 @@
       <c r="K15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="L15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1031,8 +1054,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,90 +1071,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>196300</v>
+      </c>
+      <c r="E17" s="3">
         <v>194900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>293100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>289000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>562600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>418900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>194100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>151300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>123400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>108300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>85800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>62300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-27800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-87800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-96400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-92300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-382400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-45400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-16400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-22800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-17400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-8600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,195 +1177,208 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E20" s="3">
         <v>1700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-5000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-400</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-6500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-8600</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-72100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-90000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-80500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-376300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-35700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-11800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-18900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-8000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-7600</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E22" s="3">
         <v>10100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>4000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>4100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>4300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>7400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>4000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>3200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>4600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>3500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-42300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-96100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-105400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-95700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-387100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-52800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-20500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-25900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-14900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-13800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-19800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-9400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E24" s="3">
         <v>-1400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K24" s="3">
         <v>100</v>
@@ -1344,13 +1390,16 @@
         <v>100</v>
       </c>
       <c r="N24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,90 +1439,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-43500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-94700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-107400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-97300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-387600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-52900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-20500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-26000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-15000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-14000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-19800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-9400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-26800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-29300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-26200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-88300</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>-20500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-26000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-15000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-14000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-19800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-9400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,90 +1703,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>5000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>400</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>6500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>8600</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-26800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-29300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-26200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-88300</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>-20500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-26000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-15000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-14000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-19800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-9400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,95 +1835,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-26800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-29300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-26200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-88300</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>-20500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-26000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-15000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-14000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-19800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-9400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,29 +1966,30 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>373000</v>
+      </c>
+      <c r="E41" s="3">
         <v>389000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>224400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>318500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>547600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>149100</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>8</v>
       </c>
@@ -1921,8 +2008,11 @@
       <c r="O41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1962,29 +2052,32 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>230200</v>
+      </c>
+      <c r="E43" s="3">
         <v>232300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>247000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>239400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>224400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>181800</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>8</v>
       </c>
@@ -2003,29 +2096,32 @@
       <c r="O43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>26100</v>
+      </c>
+      <c r="E44" s="3">
         <v>28600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>28200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>18400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>14600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>13700</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J44" s="3" t="s">
         <v>8</v>
       </c>
@@ -2044,29 +2140,32 @@
       <c r="O44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E45" s="3">
         <v>16900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>10400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>14200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>12000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>11600</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2085,29 +2184,32 @@
       <c r="O45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>644700</v>
+      </c>
+      <c r="E46" s="3">
         <v>666800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>510000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>590500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>798500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>356200</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>8</v>
       </c>
@@ -2126,29 +2228,32 @@
       <c r="O46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>71700</v>
+      </c>
+      <c r="E47" s="3">
         <v>79500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>98300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>106300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>87300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>93300</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>8</v>
       </c>
@@ -2167,29 +2272,32 @@
       <c r="O47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>214000</v>
+      </c>
+      <c r="E48" s="3">
         <v>208000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>227800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>177500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>119100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>86800</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>8</v>
       </c>
@@ -2208,8 +2316,11 @@
       <c r="O48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2222,14 +2333,14 @@
       <c r="F49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G49" s="3">
-        <v>6300</v>
+      <c r="G49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H49" s="3">
         <v>6300</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>8</v>
+      <c r="I49" s="3">
+        <v>6300</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>8</v>
@@ -2249,8 +2360,11 @@
       <c r="O49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,23 +2448,26 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E52" s="3">
         <v>11300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>11600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>11300</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>8</v>
       </c>
@@ -2360,8 +2480,8 @@
       <c r="K52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="L52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
@@ -2372,8 +2492,11 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,29 +2536,32 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>941900</v>
+      </c>
+      <c r="E54" s="3">
         <v>965600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>847800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>885600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1011200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>542500</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>8</v>
       </c>
@@ -2454,8 +2580,11 @@
       <c r="O54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,29 +2618,30 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>35900</v>
+      </c>
+      <c r="E57" s="3">
         <v>34500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>59700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>52700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>40600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>49800</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>8</v>
       </c>
@@ -2529,29 +2660,32 @@
       <c r="O57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>24400</v>
+      </c>
+      <c r="E58" s="3">
         <v>30800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>37500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>35400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>29700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>33500</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>8</v>
       </c>
@@ -2570,29 +2704,32 @@
       <c r="O58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>151600</v>
+      </c>
+      <c r="E59" s="3">
         <v>134700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>120600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>118800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>155500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>88000</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>8</v>
       </c>
@@ -2611,29 +2748,32 @@
       <c r="O59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>211900</v>
+      </c>
+      <c r="E60" s="3">
         <v>200000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>217900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>206900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>225800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>171300</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>8</v>
       </c>
@@ -2652,29 +2792,32 @@
       <c r="O60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>391300</v>
+      </c>
+      <c r="E61" s="3">
         <v>389500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>183900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>173200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>189600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>171500</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2693,29 +2836,32 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>75400</v>
+      </c>
+      <c r="E62" s="3">
         <v>78100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>80900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>47400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>45200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>600</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>8</v>
       </c>
@@ -2734,8 +2880,11 @@
       <c r="O62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,29 +3012,32 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>627900</v>
+      </c>
+      <c r="E66" s="3">
         <v>647600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>530400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>552500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>657600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>343300</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>8</v>
       </c>
@@ -2898,8 +3056,11 @@
       <c r="O66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3015,11 +3183,11 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
         <v>425200</v>
       </c>
-      <c r="I70" s="3">
-        <v>0</v>
-      </c>
       <c r="J70" s="3">
         <v>0</v>
       </c>
@@ -3038,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,29 +3250,32 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-165500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-152900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-143800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-114500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-88300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-226000</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>8</v>
       </c>
@@ -3120,8 +3294,11 @@
       <c r="O72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,29 +3426,32 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>314000</v>
+      </c>
+      <c r="E76" s="3">
         <v>318000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>317300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>333100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>353600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-226000</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>8</v>
       </c>
@@ -3284,8 +3470,11 @@
       <c r="O76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,95 +3514,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-26800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-29300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-26200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-88300</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>-20500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-26000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-15000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-14000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-19800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-9400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,38 +3627,39 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E83" s="3">
         <v>13900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>11400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>11100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>6500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>9700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>4700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>3900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2200</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>8</v>
       </c>
@@ -3470,8 +3669,11 @@
       <c r="O83" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,38 +3889,41 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>17200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-15400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-70400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-141200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-94100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-97900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-38800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-31600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-35700</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>8</v>
       </c>
@@ -3716,8 +3933,11 @@
       <c r="O89" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,38 +3953,39 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-20900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-19700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-28100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-40000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-34500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-31900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-20600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-10400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3400</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>8</v>
       </c>
@@ -3774,8 +3995,11 @@
       <c r="O91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,38 +4083,41 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-20900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-19700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-28100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-40000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-28200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-38100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-20600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-21900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-14000</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>8</v>
       </c>
@@ -3897,8 +4127,11 @@
       <c r="O94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,38 +4321,41 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="E100" s="3">
         <v>199700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>4500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-47900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>520800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-28800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-13400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>88100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>318900</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>8</v>
       </c>
@@ -4119,8 +4365,11 @@
       <c r="O100" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4160,38 +4409,41 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="E102" s="3">
         <v>164500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-94000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-229100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>398500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-164800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-72700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>34600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>269200</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>8</v>
       </c>
@@ -4199,6 +4451,9 @@
         <v>8</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SDC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SDC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="92">
   <si>
     <t>SDC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,218 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>184600</v>
+      </c>
+      <c r="E8" s="3">
         <v>168500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>107100</v>
-      </c>
-      <c r="F8" s="3">
-        <v>196700</v>
       </c>
       <c r="G8" s="3">
         <v>196700</v>
       </c>
       <c r="H8" s="3">
+        <v>196700</v>
+      </c>
+      <c r="I8" s="3">
         <v>180200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>373500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>177700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>128500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>119700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>106600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>68400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>53700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>54300</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>48500</v>
+      </c>
+      <c r="E9" s="3">
         <v>49800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>48800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>59800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>53400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>41400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>83600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>48900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>37700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>35900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>32800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>27600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>22800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>22000</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>136100</v>
+      </c>
+      <c r="E10" s="3">
         <v>118700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>58300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>136900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>143300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>138800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>289900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>128800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>90800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>83800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>73800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>40800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>30900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>32300</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +893,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +938,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,37 +985,40 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E14" s="3">
         <v>5700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>42900</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>29600</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1013,23 +1032,26 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E15" s="3">
         <v>8100</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>8000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>5900</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H15" s="3" t="s">
         <v>8</v>
       </c>
@@ -1045,8 +1067,8 @@
       <c r="L15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="M15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -1057,8 +1079,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1097,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>203800</v>
+      </c>
+      <c r="E17" s="3">
         <v>196300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>194900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>293100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>289000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>562600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>418900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>194100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>151300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>123400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>108300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>85800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>62300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-27800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-87800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-96400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-92300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-382400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-45400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-16400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-22800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-17400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-8600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,210 +1210,223 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E20" s="3">
         <v>1000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-5000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-400</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-6500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-8600</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-12700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-72100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-90000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-80500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-376300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-35700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-11800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-18900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-8000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-7600</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E22" s="3">
         <v>15600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>10100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>4000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>4100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>4300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>7400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>4000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>3200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>4600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>3500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>2300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-31600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-42300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-96100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-105400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-95700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-387100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-52800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-20500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-25900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-14900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-13800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-19800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-9400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E24" s="3">
         <v>1200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-1400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L24" s="3">
         <v>100</v>
@@ -1393,13 +1438,16 @@
         <v>100</v>
       </c>
       <c r="O24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1490,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-33000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-43500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-94700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-107400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-97300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-387600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-52900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-20500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-26000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-15000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-14000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-19800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-9400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-12600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-26800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-29300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-26200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-88300</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>-20500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-26000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-15000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-14000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-19800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-9400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1678,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1772,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>5000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>400</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>6500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>8600</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-12600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-26800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-29300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-26200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-88300</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-20500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-26000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-15000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-14000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-19800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-9400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1913,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-12600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-26800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-29300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-26200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-88300</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-20500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-26000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-15000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-14000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-19800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-9400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,32 +2052,33 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>316700</v>
+      </c>
+      <c r="E41" s="3">
         <v>373000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>389000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>224400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>318500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>547600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>149100</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>8</v>
       </c>
@@ -2011,8 +2097,11 @@
       <c r="P41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,32 +2144,35 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>222000</v>
+      </c>
+      <c r="E43" s="3">
         <v>230200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>232300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>247000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>239400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>224400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>181800</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>8</v>
       </c>
@@ -2099,32 +2191,35 @@
       <c r="P43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>29200</v>
+      </c>
+      <c r="E44" s="3">
         <v>26100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>28600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>28200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>18400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>14600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>13700</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K44" s="3" t="s">
         <v>8</v>
       </c>
@@ -2143,32 +2238,35 @@
       <c r="P44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E45" s="3">
         <v>15300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>16900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>10400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>14200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>12000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>11600</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2187,32 +2285,35 @@
       <c r="P45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>580800</v>
+      </c>
+      <c r="E46" s="3">
         <v>644700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>666800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>510000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>590500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>798500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>356200</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>8</v>
       </c>
@@ -2231,32 +2332,35 @@
       <c r="P46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>71400</v>
+      </c>
+      <c r="E47" s="3">
         <v>71700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>79500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>98300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>106300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>87300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>93300</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>8</v>
       </c>
@@ -2275,32 +2379,35 @@
       <c r="P47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>221200</v>
+      </c>
+      <c r="E48" s="3">
         <v>214000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>208000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>227800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>177500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>119100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>86800</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>8</v>
       </c>
@@ -2319,8 +2426,11 @@
       <c r="P48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2336,14 +2446,14 @@
       <c r="G49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H49" s="3">
-        <v>6300</v>
+      <c r="H49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I49" s="3">
         <v>6300</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>8</v>
+      <c r="J49" s="3">
+        <v>6300</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>8</v>
@@ -2363,8 +2473,11 @@
       <c r="P49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2567,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2460,17 +2579,17 @@
         <v>11500</v>
       </c>
       <c r="E52" s="3">
+        <v>11500</v>
+      </c>
+      <c r="F52" s="3">
         <v>11300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>11600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>11300</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>8</v>
       </c>
@@ -2483,8 +2602,8 @@
       <c r="L52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="M52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
@@ -2495,8 +2614,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,32 +2661,35 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>884800</v>
+      </c>
+      <c r="E54" s="3">
         <v>941900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>965600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>847800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>885600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1011200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>542500</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>8</v>
       </c>
@@ -2583,8 +2708,11 @@
       <c r="P54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,32 +2748,33 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>36800</v>
+      </c>
+      <c r="E57" s="3">
         <v>35900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>34500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>59700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>52700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>40600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>49800</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>8</v>
       </c>
@@ -2663,32 +2793,35 @@
       <c r="P57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>15700</v>
+      </c>
+      <c r="E58" s="3">
         <v>24400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>30800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>37500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>35400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>29700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>33500</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>8</v>
       </c>
@@ -2707,32 +2840,35 @@
       <c r="P58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>134000</v>
+      </c>
+      <c r="E59" s="3">
         <v>151600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>134700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>120600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>118800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>155500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>88000</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>8</v>
       </c>
@@ -2751,32 +2887,35 @@
       <c r="P59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>186500</v>
+      </c>
+      <c r="E60" s="3">
         <v>211900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>200000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>217900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>206900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>225800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>171300</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>8</v>
       </c>
@@ -2795,32 +2934,35 @@
       <c r="P60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>392900</v>
+      </c>
+      <c r="E61" s="3">
         <v>391300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>389500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>183900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>173200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>189600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>171500</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2839,32 +2981,35 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>71200</v>
+      </c>
+      <c r="E62" s="3">
         <v>75400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>78100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>80900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>47400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>45200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>600</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>8</v>
       </c>
@@ -2883,8 +3028,11 @@
       <c r="P62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,32 +3169,35 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>576700</v>
+      </c>
+      <c r="E66" s="3">
         <v>627900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>647600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>530400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>552500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>657600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>343300</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>8</v>
       </c>
@@ -3059,8 +3216,11 @@
       <c r="P66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3186,11 +3353,11 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
         <v>425200</v>
       </c>
-      <c r="J70" s="3">
-        <v>0</v>
-      </c>
       <c r="K70" s="3">
         <v>0</v>
       </c>
@@ -3209,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,32 +3423,35 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-175300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-165500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-152900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-143800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-114500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-88300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-226000</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>8</v>
       </c>
@@ -3297,8 +3470,11 @@
       <c r="P72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,32 +3611,35 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>308100</v>
+      </c>
+      <c r="E76" s="3">
         <v>314000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>318000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>317300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>333100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>353600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-226000</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>8</v>
       </c>
@@ -3473,8 +3658,11 @@
       <c r="P76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3705,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-12600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-26800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-29300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-26200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-88300</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-20500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-26000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-15000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-14000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-19800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-9400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,41 +3825,42 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E83" s="3">
         <v>14000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>13900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>11400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>11100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>6500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>9700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>4700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2200</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>8</v>
       </c>
@@ -3672,8 +3870,11 @@
       <c r="P83" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,41 +4105,44 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="E89" s="3">
         <v>17200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-15400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-70400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-141200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-94100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-97900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-38800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-31600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-35700</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>8</v>
       </c>
@@ -3936,8 +4152,11 @@
       <c r="P89" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,41 +4173,42 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-28400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-20900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-19700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-28100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-40000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-34500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-31900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-20600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-10400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3400</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>8</v>
       </c>
@@ -3998,8 +4218,11 @@
       <c r="P91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,41 +4312,44 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-28400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-20900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-19700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-28100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-40000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-28200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-38100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-20600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-21900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-14000</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>8</v>
       </c>
@@ -4130,8 +4359,11 @@
       <c r="P94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,41 +4566,44 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-12200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>199700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>4500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-47900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>520800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-28800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-13400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>88100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>318900</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>8</v>
       </c>
@@ -4368,8 +4613,11 @@
       <c r="P100" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,41 +4660,44 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-56300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-15900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>164500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-94000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-229100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>398500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-164800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-72700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>34600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>269200</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>8</v>
       </c>
@@ -4454,6 +4705,9 @@
         <v>8</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SDC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SDC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="92">
   <si>
     <t>SDC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,218 +665,231 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>199500</v>
+      </c>
+      <c r="E8" s="3">
         <v>184600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>168500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>107100</v>
-      </c>
-      <c r="G8" s="3">
-        <v>196700</v>
       </c>
       <c r="H8" s="3">
         <v>196700</v>
       </c>
       <c r="I8" s="3">
+        <v>196700</v>
+      </c>
+      <c r="J8" s="3">
         <v>180200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>373500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>177700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>128500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>119700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>106600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>68400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>53700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>54300</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>48000</v>
+      </c>
+      <c r="E9" s="3">
         <v>48500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>49800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>48800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>59800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>53400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>41400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>83600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>48900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>37700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>35900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>32800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>27600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>22800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>22000</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>151500</v>
+      </c>
+      <c r="E10" s="3">
         <v>136100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>118700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>58300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>136900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>143300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>138800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>289900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>128800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>90800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>83800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>73800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>40800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>30900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>32300</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,8 +907,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -941,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,40 +1005,43 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>48800</v>
+      </c>
+      <c r="E14" s="3">
         <v>-2300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>5700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>42900</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>29600</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1035,26 +1055,29 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E15" s="3">
         <v>9700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>8100</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>8000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>5900</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I15" s="3" t="s">
         <v>8</v>
       </c>
@@ -1070,8 +1093,8 @@
       <c r="M15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
+      <c r="N15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
@@ -1082,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1124,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>274900</v>
+      </c>
+      <c r="E17" s="3">
         <v>203800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>196300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>194900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>293100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>289000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>562600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>418900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>194100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>151300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>123400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>108300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>85800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>62300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-75400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-19200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-27800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-87800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-96400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-92300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-382400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-45400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-16400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-22800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-3700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-17400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-8600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,225 +1244,238 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E20" s="3">
         <v>3000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-5000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-400</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-6500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-8600</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-59900</v>
+      </c>
+      <c r="E21" s="3">
         <v>800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-12700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-72100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-90000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-80500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-376300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-35700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-11800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-18900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-8000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-7600</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>17600</v>
+      </c>
+      <c r="E22" s="3">
         <v>15400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>15600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>10100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>4000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>4100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>4300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>7400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>4000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>3200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>4600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>3500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-93900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-31600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-42300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-96100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-105400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-95700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-387100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-52800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-20500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-25900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-14900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-13800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-19800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-9400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E24" s="3">
         <v>1400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-1400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M24" s="3">
         <v>100</v>
@@ -1441,13 +1487,16 @@
         <v>100</v>
       </c>
       <c r="P24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-95600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-33000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-43500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-94700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-107400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-97300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-387600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-52900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-20500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-26000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-15000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-14000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-19800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-9400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-28900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-9700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-12600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-26800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-29300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-26200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-88300</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>-20500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-26000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-15000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-14000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-19800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-9400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1742,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,102 +1842,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-3000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>5000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>400</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>6500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>8600</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-28900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-9700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-12600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-26800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-29300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-26200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-88300</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>-20500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-26000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-15000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-14000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-19800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-9400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-28900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-9700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-12600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-26800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-29300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-26200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-88300</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>-20500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-26000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-15000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-14000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-19800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-9400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,35 +2139,36 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>434500</v>
+      </c>
+      <c r="E41" s="3">
         <v>316700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>373000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>389000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>224400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>318500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>547600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>149100</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>8</v>
       </c>
@@ -2100,8 +2187,11 @@
       <c r="Q41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,35 +2237,38 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>225400</v>
+      </c>
+      <c r="E43" s="3">
         <v>222000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>230200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>232300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>247000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>239400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>224400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>181800</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>8</v>
       </c>
@@ -2194,35 +2287,38 @@
       <c r="Q43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>28600</v>
+      </c>
+      <c r="E44" s="3">
         <v>29200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>26100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>28600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>28200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>18400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>14600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>13700</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L44" s="3" t="s">
         <v>8</v>
       </c>
@@ -2241,35 +2337,38 @@
       <c r="Q44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E45" s="3">
         <v>12800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>15300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>16900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>10400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>14200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>12000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>11600</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2288,35 +2387,38 @@
       <c r="Q45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>698900</v>
+      </c>
+      <c r="E46" s="3">
         <v>580800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>644700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>666800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>510000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>590500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>798500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>356200</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>8</v>
       </c>
@@ -2335,35 +2437,38 @@
       <c r="Q46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>75600</v>
+      </c>
+      <c r="E47" s="3">
         <v>71400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>71700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>79500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>98300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>106300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>87300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>93300</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>8</v>
       </c>
@@ -2382,35 +2487,38 @@
       <c r="Q47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>226100</v>
+      </c>
+      <c r="E48" s="3">
         <v>221200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>214000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>208000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>227800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>177500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>119100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>86800</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>8</v>
       </c>
@@ -2429,13 +2537,16 @@
       <c r="Q48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>8</v>
+      <c r="D49" s="3">
+        <v>7900</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>8</v>
@@ -2449,14 +2560,14 @@
       <c r="H49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I49" s="3">
-        <v>6300</v>
+      <c r="I49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J49" s="3">
         <v>6300</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>8</v>
+      <c r="K49" s="3">
+        <v>6300</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>8</v>
@@ -2476,8 +2587,11 @@
       <c r="Q49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,29 +2687,32 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>11500</v>
+        <v>3800</v>
       </c>
       <c r="E52" s="3">
         <v>11500</v>
       </c>
       <c r="F52" s="3">
+        <v>11500</v>
+      </c>
+      <c r="G52" s="3">
         <v>11300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>11600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>11300</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>8</v>
       </c>
@@ -2605,8 +2725,8 @@
       <c r="M52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
@@ -2617,8 +2737,11 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,35 +2787,38 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1012400</v>
+      </c>
+      <c r="E54" s="3">
         <v>884800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>941900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>965600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>847800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>885600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1011200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>542500</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>8</v>
       </c>
@@ -2711,8 +2837,11 @@
       <c r="Q54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,35 +2879,36 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E57" s="3">
         <v>36800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>35900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>34500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>59700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>52700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>40600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>49800</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>8</v>
       </c>
@@ -2796,35 +2927,38 @@
       <c r="Q57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E58" s="3">
         <v>15700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>24400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>30800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>37500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>35400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>29700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>33500</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>8</v>
       </c>
@@ -2843,35 +2977,38 @@
       <c r="Q58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>139400</v>
+      </c>
+      <c r="E59" s="3">
         <v>134000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>151600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>134700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>120600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>118800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>155500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>88000</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>8</v>
       </c>
@@ -2890,35 +3027,38 @@
       <c r="Q59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>170900</v>
+      </c>
+      <c r="E60" s="3">
         <v>186500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>211900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>200000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>217900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>206900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>225800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>171300</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>8</v>
       </c>
@@ -2937,35 +3077,38 @@
       <c r="Q60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>734700</v>
+      </c>
+      <c r="E61" s="3">
         <v>392900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>391300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>389500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>183900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>173200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>189600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>171500</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2984,35 +3127,38 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>26500</v>
+      </c>
+      <c r="E62" s="3">
         <v>71200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>75400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>78100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>80900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>47400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>45200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>600</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3031,8 +3177,11 @@
       <c r="Q62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,35 +3327,38 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>792000</v>
+      </c>
+      <c r="E66" s="3">
         <v>576700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>627900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>647600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>530400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>552500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>657600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>343300</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>8</v>
       </c>
@@ -3219,8 +3377,11 @@
       <c r="Q66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3356,11 +3524,11 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
         <v>425200</v>
       </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
       <c r="L70" s="3">
         <v>0</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,35 +3597,38 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-204200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-175300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-165500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-152900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-143800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-114500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-88300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-226000</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>8</v>
       </c>
@@ -3473,8 +3647,11 @@
       <c r="Q72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,35 +3797,38 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>220400</v>
+      </c>
+      <c r="E76" s="3">
         <v>308100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>314000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>318000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>317300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>333100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>353600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-226000</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>8</v>
       </c>
@@ -3661,8 +3847,11 @@
       <c r="Q76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-28900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-9700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-12600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-26800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-29300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-26200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-88300</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>-20500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-26000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-15000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-14000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-19800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-9400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,44 +4024,45 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E83" s="3">
         <v>17000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>14000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>13900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>11400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>11100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>6500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>9700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>4700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>3900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2200</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>8</v>
       </c>
@@ -3873,8 +4072,11 @@
       <c r="Q83" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,44 +4322,47 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-28300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-14900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>17200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-15400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-70400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-141200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-94100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-97900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-38800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-31600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-35700</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>8</v>
       </c>
@@ -4155,8 +4372,11 @@
       <c r="Q89" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,44 +4394,45 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-28400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-20900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-19700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-28100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-40000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-34500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-31900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-20600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-10400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3400</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>8</v>
       </c>
@@ -4221,8 +4442,11 @@
       <c r="Q91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,44 +4542,47 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-28400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-20900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-19700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-28100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-40000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-28200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-38100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-20600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-21900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-14000</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>8</v>
       </c>
@@ -4362,8 +4592,11 @@
       <c r="Q94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,44 +4812,47 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>168800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-13000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-12200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>199700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>4500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-47900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>520800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-28800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-13400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>88100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>318900</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>8</v>
       </c>
@@ -4616,31 +4862,34 @@
       <c r="Q100" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
-      </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
+        <v>400</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -4663,44 +4912,47 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>117800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-56300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-15900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>164500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-94000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-229100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>398500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-164800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-72700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>34600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>269200</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>8</v>
       </c>
@@ -4708,6 +4960,9 @@
         <v>8</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SDC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SDC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="92">
   <si>
     <t>SDC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>174200</v>
+      </c>
+      <c r="E8" s="3">
         <v>199500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>184600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>168500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>107100</v>
-      </c>
-      <c r="H8" s="3">
-        <v>196700</v>
       </c>
       <c r="I8" s="3">
         <v>196700</v>
       </c>
       <c r="J8" s="3">
+        <v>196700</v>
+      </c>
+      <c r="K8" s="3">
         <v>180200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>373500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>177700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>128500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>119700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>106600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>68400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>53700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>54300</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>45900</v>
+      </c>
+      <c r="E9" s="3">
         <v>48000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>48500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>49800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>48800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>59800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>53400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>41400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>83600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>48900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>37700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>35900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>32800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>27600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>22800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>22000</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>128300</v>
+      </c>
+      <c r="E10" s="3">
         <v>151500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>136100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>118700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>58300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>136900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>143300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>138800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>289900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>128800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>90800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>83800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>73800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>40800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>30900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>32300</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,43 +1025,46 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>500</v>
+      </c>
+      <c r="E14" s="3">
         <v>48800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-2300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>5700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>42900</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>29600</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1058,29 +1078,32 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E15" s="3">
         <v>9400</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>9700</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>8100</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>8000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>5900</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J15" s="3" t="s">
         <v>8</v>
       </c>
@@ -1096,8 +1119,8 @@
       <c r="N15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
+      <c r="O15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>227400</v>
+      </c>
+      <c r="E17" s="3">
         <v>274900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>203800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>196300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>194900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>293100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>289000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>562600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>418900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>194100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>151300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>123400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>108300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>85800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>62300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-53200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-75400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-19200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-27800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-87800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-96400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-92300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-382400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-45400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-16400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-22800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-3700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-17400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-8600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,240 +1278,253 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>3000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-5000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-400</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-6500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-8600</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-36600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-59900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-12700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-72100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-90000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-80500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-376300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-35700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-11800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-18900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-8000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-7600</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E22" s="3">
         <v>17600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>15400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>15600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>10100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>4000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>4100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>4300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>7400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>4000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>3200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>4600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>3500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>2300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-55300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-93900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-31600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-42300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-96100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-105400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-95700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-387100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-52800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-20500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-25900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-14900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-13800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-19800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-9400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>1700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-1400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N24" s="3">
         <v>100</v>
@@ -1490,13 +1536,16 @@
         <v>100</v>
       </c>
       <c r="Q24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-55300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-95600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-33000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-43500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-94700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-107400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-97300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-387600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-52900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-20500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-26000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-15000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-14000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-19800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-9400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-28900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-9700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-12600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-26800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-29300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-26200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-88300</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>-20500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-26000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-15000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-14000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-19800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-9400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>100</v>
+      </c>
+      <c r="E32" s="3">
         <v>1000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-3000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>5000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>400</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>6500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>8600</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-28900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-9700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-12600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-26800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-29300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-26200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-88300</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>-20500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-26000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-15000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-14000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-19800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-9400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-28900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-9700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-12600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-26800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-29300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-26200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-88300</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>-20500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-26000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-15000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-14000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-19800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-9400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,38 +2226,39 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>376600</v>
+      </c>
+      <c r="E41" s="3">
         <v>434500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>316700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>373000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>389000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>224400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>318500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>547600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>149100</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>8</v>
       </c>
@@ -2190,8 +2277,11 @@
       <c r="R41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,38 +2330,41 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>214300</v>
+      </c>
+      <c r="E43" s="3">
         <v>225400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>222000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>230200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>232300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>247000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>239400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>224400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>181800</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>8</v>
       </c>
@@ -2290,38 +2383,41 @@
       <c r="R43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>32900</v>
+      </c>
+      <c r="E44" s="3">
         <v>28600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>29200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>26100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>28600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>28200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>18400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>14600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>13700</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M44" s="3" t="s">
         <v>8</v>
       </c>
@@ -2340,38 +2436,41 @@
       <c r="R44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>18100</v>
+      </c>
+      <c r="E45" s="3">
         <v>10400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>12800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>15300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>16900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>10400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>14200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>12000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>11600</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2390,38 +2489,41 @@
       <c r="R45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>642000</v>
+      </c>
+      <c r="E46" s="3">
         <v>698900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>580800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>644700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>666800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>510000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>590500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>798500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>356200</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>8</v>
       </c>
@@ -2440,38 +2542,41 @@
       <c r="R46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>76300</v>
+      </c>
+      <c r="E47" s="3">
         <v>75600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>71400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>71700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>79500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>98300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>106300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>87300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>93300</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>8</v>
       </c>
@@ -2490,38 +2595,41 @@
       <c r="R47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>230300</v>
+      </c>
+      <c r="E48" s="3">
         <v>226100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>221200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>214000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>208000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>227800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>177500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>119100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>86800</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>8</v>
       </c>
@@ -2540,17 +2648,20 @@
       <c r="R48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E49" s="3">
         <v>7900</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F49" s="3" t="s">
         <v>8</v>
       </c>
@@ -2563,14 +2674,14 @@
       <c r="I49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J49" s="3">
-        <v>6300</v>
+      <c r="J49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K49" s="3">
         <v>6300</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>8</v>
+      <c r="L49" s="3">
+        <v>6300</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>8</v>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,32 +2807,35 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E52" s="3">
         <v>3800</v>
-      </c>
-      <c r="E52" s="3">
-        <v>11500</v>
       </c>
       <c r="F52" s="3">
         <v>11500</v>
       </c>
       <c r="G52" s="3">
+        <v>11500</v>
+      </c>
+      <c r="H52" s="3">
         <v>11300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>11600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>11300</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>8</v>
       </c>
@@ -2728,8 +2848,8 @@
       <c r="N52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
+      <c r="O52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,38 +2913,41 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>960400</v>
+      </c>
+      <c r="E54" s="3">
         <v>1012400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>884800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>941900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>965600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>847800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>885600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1011200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>542500</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>8</v>
       </c>
@@ -2840,8 +2966,11 @@
       <c r="R54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,38 +3010,39 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>22600</v>
+      </c>
+      <c r="E57" s="3">
         <v>20600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>36800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>35900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>34500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>59700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>52700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>40600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>49800</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>8</v>
       </c>
@@ -2930,38 +3061,41 @@
       <c r="R57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E58" s="3">
         <v>10900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>15700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>24400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>30800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>37500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>35400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>29700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>33500</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>8</v>
       </c>
@@ -2980,38 +3114,41 @@
       <c r="R58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>130200</v>
+      </c>
+      <c r="E59" s="3">
         <v>139400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>134000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>151600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>134700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>120600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>118800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>155500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>88000</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>8</v>
       </c>
@@ -3030,38 +3167,41 @@
       <c r="R59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>163500</v>
+      </c>
+      <c r="E60" s="3">
         <v>170900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>186500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>211900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>200000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>217900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>206900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>225800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>171300</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>8</v>
       </c>
@@ -3080,38 +3220,41 @@
       <c r="R60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>733400</v>
+      </c>
+      <c r="E61" s="3">
         <v>734700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>392900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>391300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>389500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>183900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>173200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>189600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>171500</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -3130,38 +3273,41 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>29400</v>
+      </c>
+      <c r="E62" s="3">
         <v>26500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>71200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>75400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>78100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>80900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>47400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>45200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>600</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,38 +3485,41 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>747600</v>
+      </c>
+      <c r="E66" s="3">
         <v>792000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>576700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>627900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>647600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>530400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>552500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>657600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>343300</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>8</v>
       </c>
@@ -3380,8 +3538,11 @@
       <c r="R66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3527,11 +3695,11 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
         <v>425200</v>
       </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
       <c r="M70" s="3">
         <v>0</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,38 +3771,41 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-221000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-204200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-175300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-165500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-152900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-143800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-114500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-88300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-226000</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>8</v>
       </c>
@@ -3650,8 +3824,11 @@
       <c r="R72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,38 +3983,41 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>212800</v>
+      </c>
+      <c r="E76" s="3">
         <v>220400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>308100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>314000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>318000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>317300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>333100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>353600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-226000</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>8</v>
       </c>
@@ -3850,8 +4036,11 @@
       <c r="R76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-28900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-9700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-12600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-26800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-29300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-26200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-88300</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>-20500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-26000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-15000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-14000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-19800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-9400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,47 +4223,48 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E83" s="3">
         <v>16500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>17000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>14000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>13900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>11400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>11100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>6500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>9700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>4700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>3900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2200</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P83" s="3" t="s">
         <v>8</v>
       </c>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,47 +4539,50 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-28300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-14900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>17200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-15400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-70400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-141200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-94100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-97900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-38800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-31600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-35700</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>8</v>
       </c>
@@ -4375,8 +4592,11 @@
       <c r="R89" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,47 +4615,48 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-22300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-23000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-28400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-20900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-19700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-28100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-40000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-34500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-31900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-20600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-10400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3400</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>8</v>
       </c>
@@ -4445,8 +4666,11 @@
       <c r="R91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,47 +4772,50 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-22300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-23000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-28400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-20900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-19700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-28100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-40000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-28200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-38100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-20600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-21900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-14000</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>8</v>
       </c>
@@ -4595,8 +4825,11 @@
       <c r="R94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,47 +5058,50 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E100" s="3">
         <v>168800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-13000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-12200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>199700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>4500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-47900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>520800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-28800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-13400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>88100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>318900</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>8</v>
       </c>
@@ -4865,17 +5111,20 @@
       <c r="R100" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>500</v>
+      </c>
+      <c r="E101" s="3">
         <v>400</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F101" s="3" t="s">
         <v>8</v>
       </c>
@@ -4891,8 +5140,8 @@
       <c r="J101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
+      <c r="K101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
@@ -4915,47 +5164,50 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-57900</v>
+      </c>
+      <c r="E102" s="3">
         <v>117800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-56300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-15900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>164500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-94000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-229100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>398500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-164800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-72700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>34600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>269200</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>8</v>
       </c>
@@ -4963,6 +5215,9 @@
         <v>8</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SDC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SDC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="92">
   <si>
     <t>SDC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>137700</v>
+      </c>
+      <c r="E8" s="3">
         <v>174200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>199500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>184600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>168500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>107100</v>
-      </c>
-      <c r="I8" s="3">
-        <v>196700</v>
       </c>
       <c r="J8" s="3">
         <v>196700</v>
       </c>
       <c r="K8" s="3">
+        <v>196700</v>
+      </c>
+      <c r="L8" s="3">
         <v>180200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>373500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>177700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>128500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>119700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>106600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>68400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>53700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>54300</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>39400</v>
+      </c>
+      <c r="E9" s="3">
         <v>45900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>48000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>48500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>49800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>48800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>59800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>53400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>41400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>83600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>48900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>37700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>35900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>32800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>27600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>22800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>22000</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>98300</v>
+      </c>
+      <c r="E10" s="3">
         <v>128300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>151500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>136100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>118700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>58300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>136900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>143300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>138800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>289900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>128800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>90800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>83800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>73800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>40800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>30900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>32300</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,46 +1045,49 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E14" s="3">
         <v>500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>48800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-2300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>5700</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>42900</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>29600</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1081,32 +1101,35 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E15" s="3">
         <v>9800</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>9400</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>9700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>8100</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>8000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>5900</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K15" s="3" t="s">
         <v>8</v>
       </c>
@@ -1122,8 +1145,8 @@
       <c r="O15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
+      <c r="P15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q15" s="3">
         <v>0</v>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>222700</v>
+      </c>
+      <c r="E17" s="3">
         <v>227400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>274900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>203800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>196300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>194900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>293100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>289000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>562600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>418900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>194100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>151300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>123400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>108300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>85800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>62300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-85000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-53200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-75400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-19200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-27800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-87800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-96400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-92300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-382400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-45400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-16400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-22800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-3700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-17400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-8600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,255 +1312,268 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-5000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-400</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-6500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-8600</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-69200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-36600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-59900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-12700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-72100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-90000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-80500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-376300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-35700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-11800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-18900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-8000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-7600</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E22" s="3">
         <v>1900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>17600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>15400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>15600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>10100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>4000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>4100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>4300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>7400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>4000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>3200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>4600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>3500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>2300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-89500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-55300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-93900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-31600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-42300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-96100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-105400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-95700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-387100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-52800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-20500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-25900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-14900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-13800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-19800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-9400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>1700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-1400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O24" s="3">
         <v>100</v>
@@ -1539,13 +1585,16 @@
         <v>100</v>
       </c>
       <c r="R24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-89400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-55300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-95600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-33000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-43500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-94700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-107400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-97300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-387600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-52900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-20500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-26000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-15000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-14000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-19800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-9400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-27400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-16900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-28900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-9700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-12600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-26800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-29300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-26200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-88300</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>-20500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-26000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-15000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-14000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-19800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-9400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>5000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>400</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>6500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>8600</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-27400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-16900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-28900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-9700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-12600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-26800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-29300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-26200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-88300</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-20500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-26000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-15000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-14000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-19800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-9400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-27400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-16900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-28900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-9700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-12600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-26800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-29300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-26200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-88300</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-20500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-26000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-15000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-14000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-19800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-9400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,41 +2313,42 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>307600</v>
+      </c>
+      <c r="E41" s="3">
         <v>376600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>434500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>316700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>373000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>389000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>224400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>318500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>547600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>149100</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>8</v>
       </c>
@@ -2280,8 +2367,11 @@
       <c r="S41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,41 +2423,44 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>195800</v>
+      </c>
+      <c r="E43" s="3">
         <v>214300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>225400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>222000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>230200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>232300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>247000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>239400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>224400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>181800</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>8</v>
       </c>
@@ -2386,41 +2479,44 @@
       <c r="S43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>39000</v>
+      </c>
+      <c r="E44" s="3">
         <v>32900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>28600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>29200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>26100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>28600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>28200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>18400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>14600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>13700</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N44" s="3" t="s">
         <v>8</v>
       </c>
@@ -2439,41 +2535,44 @@
       <c r="S44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E45" s="3">
         <v>18100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>10400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>12800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>15300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>16900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>10400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>14200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>12000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>11600</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2492,41 +2591,44 @@
       <c r="S45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>562300</v>
+      </c>
+      <c r="E46" s="3">
         <v>642000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>698900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>580800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>644700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>666800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>510000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>590500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>798500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>356200</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>8</v>
       </c>
@@ -2545,41 +2647,44 @@
       <c r="S46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>69900</v>
+      </c>
+      <c r="E47" s="3">
         <v>76300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>75600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>71400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>71700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>79500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>98300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>106300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>87300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>93300</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>8</v>
       </c>
@@ -2598,41 +2703,44 @@
       <c r="S47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>242500</v>
+      </c>
+      <c r="E48" s="3">
         <v>230300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>226100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>221200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>214000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>208000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>227800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>177500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>119100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>86800</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>8</v>
       </c>
@@ -2651,20 +2759,23 @@
       <c r="S48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E49" s="3">
         <v>8200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>7900</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>8</v>
       </c>
@@ -2677,14 +2788,14 @@
       <c r="J49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K49" s="3">
-        <v>6300</v>
+      <c r="K49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L49" s="3">
         <v>6300</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>8</v>
+      <c r="M49" s="3">
+        <v>6300</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>8</v>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,35 +2927,38 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E52" s="3">
         <v>3500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3800</v>
-      </c>
-      <c r="F52" s="3">
-        <v>11500</v>
       </c>
       <c r="G52" s="3">
         <v>11500</v>
       </c>
       <c r="H52" s="3">
+        <v>11500</v>
+      </c>
+      <c r="I52" s="3">
         <v>11300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>11600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>11300</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>8</v>
       </c>
@@ -2851,8 +2971,8 @@
       <c r="O52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
+      <c r="P52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,41 +3039,44 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>886100</v>
+      </c>
+      <c r="E54" s="3">
         <v>960400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1012400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>884800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>941900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>965600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>847800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>885600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1011200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>542500</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>8</v>
       </c>
@@ -2969,8 +3095,11 @@
       <c r="S54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,41 +3141,42 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E57" s="3">
         <v>22600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>20600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>36800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>35900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>34500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>59700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>52700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>40600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>49800</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>8</v>
       </c>
@@ -3064,41 +3195,44 @@
       <c r="S57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E58" s="3">
         <v>10700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>10900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>15700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>24400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>30800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>37500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>35400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>29700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>33500</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>8</v>
       </c>
@@ -3117,41 +3251,44 @@
       <c r="S58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>145400</v>
+      </c>
+      <c r="E59" s="3">
         <v>130200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>139400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>134000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>151600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>134700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>120600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>118800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>155500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>88000</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>8</v>
       </c>
@@ -3170,41 +3307,44 @@
       <c r="S59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>175000</v>
+      </c>
+      <c r="E60" s="3">
         <v>163500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>170900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>186500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>211900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>200000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>217900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>206900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>225800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>171300</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>8</v>
       </c>
@@ -3223,41 +3363,44 @@
       <c r="S60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>733200</v>
+      </c>
+      <c r="E61" s="3">
         <v>733400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>734700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>392900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>391300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>389500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>183900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>173200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>189600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>171500</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3276,41 +3419,44 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>23600</v>
+      </c>
+      <c r="E62" s="3">
         <v>29400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>26500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>71200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>75400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>78100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>80900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>47400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>45200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>600</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,41 +3643,44 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>691600</v>
+      </c>
+      <c r="E66" s="3">
         <v>747600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>792000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>576700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>627900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>647600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>530400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>552500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>657600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>343300</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>8</v>
       </c>
@@ -3541,8 +3699,11 @@
       <c r="S66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3698,11 +3866,11 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
         <v>425200</v>
       </c>
-      <c r="M70" s="3">
-        <v>0</v>
-      </c>
       <c r="N70" s="3">
         <v>0</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,41 +3945,44 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-248400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-221000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-204200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-175300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-165500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-152900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-143800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-114500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-88300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-226000</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>8</v>
       </c>
@@ -3827,8 +4001,11 @@
       <c r="S72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,41 +4169,44 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>194500</v>
+      </c>
+      <c r="E76" s="3">
         <v>212800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>220400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>308100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>314000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>318000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>317300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>333100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>353600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-226000</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>8</v>
       </c>
@@ -4039,8 +4225,11 @@
       <c r="S76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-27400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-16900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-28900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-9700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-12600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-26800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-29300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-26200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-88300</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-20500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-26000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-15000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-14000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-19800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-9400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,50 +4422,51 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E83" s="3">
         <v>16700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>16500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>17000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>14000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>13900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>11400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>11100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>6500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>9700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>4700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>3900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>2200</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q83" s="3" t="s">
         <v>8</v>
       </c>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,50 +4756,53 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-38700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-31000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-28300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-14900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>17200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-15400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-70400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-141200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-94100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-97900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-38800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-31600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-35700</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>8</v>
       </c>
@@ -4595,8 +4812,11 @@
       <c r="S89" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,50 +4836,51 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-22300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-23000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-28400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-20900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-19700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-28100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-40000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-34500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-31900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-20600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-10400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3400</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q91" s="3" t="s">
         <v>8</v>
       </c>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,50 +5002,53 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-22300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-23000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-28400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-20900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-19700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-28100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-40000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-28200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-38100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-20600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-21900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-14000</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q94" s="3" t="s">
         <v>8</v>
       </c>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,50 +5304,53 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-5100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>168800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-13000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-12200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>199700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>4500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-47900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>520800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-28800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-13400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>88100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>318900</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>8</v>
       </c>
@@ -5114,20 +5360,23 @@
       <c r="S100" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E101" s="3">
         <v>500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>400</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G101" s="3" t="s">
         <v>8</v>
       </c>
@@ -5143,8 +5392,8 @@
       <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
+      <c r="L101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
@@ -5167,50 +5416,53 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-69000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-57900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>117800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-56300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-15900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>164500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-94000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-229100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>398500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-164800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-72700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>34600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>269200</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q102" s="3" t="s">
         <v>8</v>
       </c>
@@ -5218,6 +5470,9 @@
         <v>8</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SDC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SDC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="92">
   <si>
     <t>SDC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,269 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>126300</v>
+      </c>
+      <c r="E8" s="3">
         <v>137700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>174200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>199500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>184600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>168500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>107100</v>
-      </c>
-      <c r="J8" s="3">
-        <v>196700</v>
       </c>
       <c r="K8" s="3">
         <v>196700</v>
       </c>
       <c r="L8" s="3">
+        <v>196700</v>
+      </c>
+      <c r="M8" s="3">
         <v>180200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>373500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>177700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>128500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>119700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>106600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>68400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>53700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>54300</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>44400</v>
+      </c>
+      <c r="E9" s="3">
         <v>39400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>45900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>48000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>48500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>49800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>48800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>59800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>53400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>41400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>83600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>48900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>37700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>35900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>32800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>27600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>22800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>22000</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>81900</v>
+      </c>
+      <c r="E10" s="3">
         <v>98300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>128300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>151500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>136100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>118700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>58300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>136900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>143300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>138800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>289900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>128800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>90800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>83800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>73800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>40800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>30900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>32300</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,49 +1064,52 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E14" s="3">
         <v>1500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>48800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-2300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>5700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>42900</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>29600</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1104,35 +1123,38 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E15" s="3">
         <v>11800</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>9800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>9400</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>9700</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>8100</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>8000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>5900</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L15" s="3" t="s">
         <v>8</v>
       </c>
@@ -1148,8 +1170,8 @@
       <c r="P15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
+      <c r="Q15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R15" s="3">
         <v>0</v>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>219500</v>
+      </c>
+      <c r="E17" s="3">
         <v>222700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>227400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>274900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>203800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>196300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>194900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>293100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>289000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>562600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>418900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>194100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>151300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>123400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>108300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>85800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>62300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-93200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-85000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-53200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-75400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-19200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-27800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-87800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-96400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-92300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-382400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-45400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-16400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-22800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-17400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-8600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,270 +1345,283 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>3000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-5000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-400</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-6500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-8600</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-75300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-69200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-36600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-59900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-12700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-72100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-90000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-80500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-376300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-35700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-11800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-18900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-7600</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E22" s="3">
         <v>1800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>17600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>15400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>15600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>10100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>4000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>4100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>4300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>7400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>4000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>3200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>4600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>3500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>2300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>800</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-95700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-89500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-55300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-93900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-31600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-42300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-96100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-105400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-95700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-387100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-52800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-20500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-25900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-14900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-13800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-19800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-9400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E24" s="3">
         <v>-100</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>1700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-1400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P24" s="3">
         <v>100</v>
@@ -1588,13 +1633,16 @@
         <v>100</v>
       </c>
       <c r="S24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-95400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-89400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-55300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-95600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-33000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-43500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-94700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-107400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-97300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-387600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-52900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-20500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-26000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-15000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-14000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-19800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-9400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-29300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-27400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-16900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-28900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-9700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-12600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-26800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-29300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-26200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-88300</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>-20500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-26000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-15000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-14000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-19800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-9400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2051,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>600</v>
+      </c>
+      <c r="E32" s="3">
         <v>2700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-3000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>5000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>400</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>6500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>8600</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-29300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-27400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-16900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-28900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-9700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-12600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-26800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-29300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-26200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-88300</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>-20500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-26000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-15000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-14000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-19800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-9400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-29300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-27400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-16900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-28900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-9700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-12600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-26800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-29300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-26200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-88300</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>-20500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-26000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-15000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-14000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-19800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-9400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,44 +2399,45 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>224900</v>
+      </c>
+      <c r="E41" s="3">
         <v>307600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>376600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>434500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>316700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>373000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>389000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>224400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>318500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>547600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>149100</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>8</v>
       </c>
@@ -2370,8 +2456,11 @@
       <c r="T41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,44 +2515,47 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>184600</v>
+      </c>
+      <c r="E43" s="3">
         <v>195800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>214300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>225400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>222000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>230200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>232300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>247000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>239400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>224400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>181800</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>8</v>
       </c>
@@ -2482,44 +2574,47 @@
       <c r="T43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>40800</v>
+      </c>
+      <c r="E44" s="3">
         <v>39000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>32900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>28600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>29200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>26100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>28600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>28200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>18400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>14600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>13700</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O44" s="3" t="s">
         <v>8</v>
       </c>
@@ -2538,44 +2633,47 @@
       <c r="T44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E45" s="3">
         <v>19900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>18100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>10400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>12800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>15300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>16900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>10400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>14200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>12000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>11600</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2594,44 +2692,47 @@
       <c r="T45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>467700</v>
+      </c>
+      <c r="E46" s="3">
         <v>562300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>642000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>698900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>580800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>644700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>666800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>510000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>590500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>798500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>356200</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>8</v>
       </c>
@@ -2650,44 +2751,47 @@
       <c r="T46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>62200</v>
+      </c>
+      <c r="E47" s="3">
         <v>69900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>76300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>75600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>71400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>71700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>79500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>98300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>106300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>87300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>93300</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>8</v>
       </c>
@@ -2706,44 +2810,47 @@
       <c r="T47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>252100</v>
+      </c>
+      <c r="E48" s="3">
         <v>242500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>230300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>226100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>221200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>214000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>208000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>227800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>177500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>119100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>86800</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>8</v>
       </c>
@@ -2762,23 +2869,26 @@
       <c r="T48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E49" s="3">
         <v>7900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>8200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>7900</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>8</v>
       </c>
@@ -2791,14 +2901,14 @@
       <c r="K49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L49" s="3">
-        <v>6300</v>
+      <c r="L49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M49" s="3">
         <v>6300</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>8</v>
+      <c r="N49" s="3">
+        <v>6300</v>
       </c>
       <c r="O49" s="3" t="s">
         <v>8</v>
@@ -2818,8 +2928,11 @@
       <c r="T49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,38 +3046,41 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E52" s="3">
         <v>3600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3800</v>
-      </c>
-      <c r="G52" s="3">
-        <v>11500</v>
       </c>
       <c r="H52" s="3">
         <v>11500</v>
       </c>
       <c r="I52" s="3">
+        <v>11500</v>
+      </c>
+      <c r="J52" s="3">
         <v>11300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>11600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>11300</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>8</v>
       </c>
@@ -2974,8 +3093,8 @@
       <c r="P52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
+      <c r="Q52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
@@ -2986,8 +3105,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,44 +3164,47 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>794600</v>
+      </c>
+      <c r="E54" s="3">
         <v>886100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>960400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1012400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>884800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>941900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>965600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>847800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>885600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1011200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>542500</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>8</v>
       </c>
@@ -3098,8 +3223,11 @@
       <c r="T54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3271,9 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3151,35 +3281,35 @@
         <v>19900</v>
       </c>
       <c r="E57" s="3">
+        <v>19900</v>
+      </c>
+      <c r="F57" s="3">
         <v>22600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>20600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>36800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>35900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>34500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>59700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>52700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>40600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>49800</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>8</v>
       </c>
@@ -3198,44 +3328,47 @@
       <c r="T57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E58" s="3">
         <v>9700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>10700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>10900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>15700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>24400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>30800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>37500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>35400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>29700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>33500</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>8</v>
       </c>
@@ -3254,44 +3387,47 @@
       <c r="T58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>147300</v>
+      </c>
+      <c r="E59" s="3">
         <v>145400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>130200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>139400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>134000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>151600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>134700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>120600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>118800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>155500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>88000</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>8</v>
       </c>
@@ -3310,44 +3446,47 @@
       <c r="T59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>178200</v>
+      </c>
+      <c r="E60" s="3">
         <v>175000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>163500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>170900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>186500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>211900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>200000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>217900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>206900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>225800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>171300</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>8</v>
       </c>
@@ -3366,44 +3505,47 @@
       <c r="T60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>730000</v>
+      </c>
+      <c r="E61" s="3">
         <v>733200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>733400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>734700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>392900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>391300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>389500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>183900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>173200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>189600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>171500</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3422,44 +3564,47 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>20700</v>
+      </c>
+      <c r="E62" s="3">
         <v>23600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>29400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>26500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>71200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>75400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>78100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>80900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>47400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>45200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>600</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3478,8 +3623,11 @@
       <c r="T62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,44 +3800,47 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>623100</v>
+      </c>
+      <c r="E66" s="3">
         <v>691600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>747600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>792000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>576700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>627900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>647600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>530400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>552500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>657600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>343300</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>8</v>
       </c>
@@ -3702,8 +3859,11 @@
       <c r="T66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3869,11 +4036,11 @@
         <v>0</v>
       </c>
       <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
         <v>425200</v>
       </c>
-      <c r="N70" s="3">
-        <v>0</v>
-      </c>
       <c r="O70" s="3">
         <v>0</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,44 +4118,47 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-277700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-248400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-221000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-204200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-175300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-165500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-152900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-143800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-114500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-88300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-226000</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>8</v>
       </c>
@@ -4004,8 +4177,11 @@
       <c r="T72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,44 +4354,47 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>171500</v>
+      </c>
+      <c r="E76" s="3">
         <v>194500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>212800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>220400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>308100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>314000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>318000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>317300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>333100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>353600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-226000</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>8</v>
       </c>
@@ -4228,8 +4413,11 @@
       <c r="T76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-29300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-27400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-16900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-28900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-9700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-12600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-26800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-29300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-26200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-88300</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>-20500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-26000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-15000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-14000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-19800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-9400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4620,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4432,44 +4630,44 @@
         <v>18500</v>
       </c>
       <c r="E83" s="3">
+        <v>18500</v>
+      </c>
+      <c r="F83" s="3">
         <v>16700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>16500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>17000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>14000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>13900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>11400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>11100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>6500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>9700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>4700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>3900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>2200</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R83" s="3" t="s">
         <v>8</v>
       </c>
@@ -4479,8 +4677,11 @@
       <c r="T83" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,53 +4972,56 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-43500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-38700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-31000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-28300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-14900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>17200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-15400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-70400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-141200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-94100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-97900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-38800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-31600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-35700</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R89" s="3" t="s">
         <v>8</v>
       </c>
@@ -4815,8 +5031,11 @@
       <c r="T89" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,53 +5056,54 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-36300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-25000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-22300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-23000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-28400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-20900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-19700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-28100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-40000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-34500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-31900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-20600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-10400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R91" s="3" t="s">
         <v>8</v>
       </c>
@@ -4893,8 +5113,11 @@
       <c r="T91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,53 +5231,56 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-36300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-25000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-22300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-23000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-28400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-20900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-19700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-28100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-40000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-28200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-38100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-20600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-21900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-14000</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R94" s="3" t="s">
         <v>8</v>
       </c>
@@ -5061,8 +5290,11 @@
       <c r="T94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,53 +5549,56 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-4900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-5100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>168800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-13000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-12200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>199700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>4500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-47900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>520800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-28800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-13400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>88100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>318900</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R100" s="3" t="s">
         <v>8</v>
       </c>
@@ -5363,23 +5608,26 @@
       <c r="T100" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>-400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>400</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H101" s="3" t="s">
         <v>8</v>
       </c>
@@ -5395,8 +5643,8 @@
       <c r="L101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
+      <c r="M101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N101" s="3">
         <v>0</v>
@@ -5419,53 +5667,56 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-82800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-69000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-57900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>117800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-56300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-15900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>164500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-94000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-229100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>398500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-164800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-72700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>34600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>269200</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R102" s="3" t="s">
         <v>8</v>
       </c>
@@ -5473,6 +5724,9 @@
         <v>8</v>
       </c>
       <c r="T102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SDC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SDC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="92">
   <si>
     <t>SDC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,282 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>151600</v>
+      </c>
+      <c r="E8" s="3">
         <v>126300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>137700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>174200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>199500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>184600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>168500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>107100</v>
-      </c>
-      <c r="K8" s="3">
-        <v>196700</v>
       </c>
       <c r="L8" s="3">
         <v>196700</v>
       </c>
       <c r="M8" s="3">
+        <v>196700</v>
+      </c>
+      <c r="N8" s="3">
         <v>180200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>373500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>177700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>128500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>119700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>106600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>68400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>53700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>54300</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>43100</v>
+      </c>
+      <c r="E9" s="3">
         <v>44400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>39400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>45900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>48000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>48500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>49800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>48800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>59800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>53400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>41400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>83600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>48900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>37700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>35900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>32800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>27600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>22800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>22000</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>108500</v>
+      </c>
+      <c r="E10" s="3">
         <v>81900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>98300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>128300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>151500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>136100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>118700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>58300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>136900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>143300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>138800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>289900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>128800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>90800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>83800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>73800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>40800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>30900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>32300</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,52 +1084,55 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E14" s="3">
         <v>2100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>48800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-2300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>5700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>42900</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>29600</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1126,38 +1146,41 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E15" s="3">
         <v>11600</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>11800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>9800</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>9400</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>9700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>8100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>8000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>5900</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M15" s="3" t="s">
         <v>8</v>
       </c>
@@ -1173,8 +1196,8 @@
       <c r="Q15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R15" s="3">
-        <v>0</v>
+      <c r="R15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S15" s="3">
         <v>0</v>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>223300</v>
+      </c>
+      <c r="E17" s="3">
         <v>219500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>222700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>227400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>274900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>203800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>196300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>194900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>293100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>289000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>562600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>418900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>194100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>151300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>123400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>108300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>85800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>62300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-71700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-93200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-85000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-53200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-75400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-19200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-27800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-87800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-96400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-92300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-382400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-45400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-16400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-22800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-3700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-17400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-8600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,285 +1379,298 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>3000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-5000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-400</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-6500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-8600</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-54200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-75300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-69200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-36600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-59900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-12700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-72100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-90000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-80500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-376300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-35700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-11800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-18900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-8000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-7600</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E22" s="3">
         <v>1900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>17600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>15400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>15600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>10100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>4000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>4100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>4300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>7400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>4000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>3200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>4600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>3500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>2300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>800</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-74700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-95700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-89500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-55300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-93900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-31600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-42300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-96100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-105400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-95700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-387100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-52800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-20500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-25900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-14900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-13800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-19800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-9400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E24" s="3">
         <v>-300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-100</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>1700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-1400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="3">
         <v>100</v>
@@ -1636,13 +1682,16 @@
         <v>100</v>
       </c>
       <c r="T24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-73200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-95400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-89400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-55300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-95600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-33000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-43500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-94700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-107400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-97300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-387600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-52900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-20500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-26000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-15000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-14000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-19800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-9400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-22600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-29300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-27400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-16900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-28900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-9700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-12600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-26800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-29300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-26200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-88300</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>-20500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-26000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-15000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-14000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-19800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-9400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E32" s="3">
         <v>600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-3000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>5000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>400</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>6500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>8600</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-22600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-29300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-27400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-16900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-28900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-9700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-12600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-26800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-29300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-26200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-88300</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>-20500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-26000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-15000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-14000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-19800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-9400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-22600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-29300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-27400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-16900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-28900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-9700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-12600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-26800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-29300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-26200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-88300</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>-20500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-26000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-15000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-14000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-19800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-9400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,47 +2486,48 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>144700</v>
+      </c>
+      <c r="E41" s="3">
         <v>224900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>307600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>376600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>434500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>316700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>373000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>389000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>224400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>318500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>547600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>149100</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>8</v>
       </c>
@@ -2459,8 +2546,11 @@
       <c r="U41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,47 +2608,50 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>181700</v>
+      </c>
+      <c r="E43" s="3">
         <v>184600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>195800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>214300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>225400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>222000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>230200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>232300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>247000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>239400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>224400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>181800</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>8</v>
       </c>
@@ -2577,47 +2670,50 @@
       <c r="U43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>39000</v>
+      </c>
+      <c r="E44" s="3">
         <v>40800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>39000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>32900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>28600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>29200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>26100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>28600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>28200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>18400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>14600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>13700</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P44" s="3" t="s">
         <v>8</v>
       </c>
@@ -2636,47 +2732,50 @@
       <c r="U44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>24800</v>
+      </c>
+      <c r="E45" s="3">
         <v>17500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>19900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>18100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>10400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>12800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>15300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>16900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>10400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>14200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>12000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>11600</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2695,47 +2794,50 @@
       <c r="U45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>390200</v>
+      </c>
+      <c r="E46" s="3">
         <v>467700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>562300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>642000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>698900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>580800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>644700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>666800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>510000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>590500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>798500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>356200</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>8</v>
       </c>
@@ -2754,47 +2856,50 @@
       <c r="U46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>61900</v>
+      </c>
+      <c r="E47" s="3">
         <v>62200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>69900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>76300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>75600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>71400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>71700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>79500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>98300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>106300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>87300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>93300</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P47" s="3" t="s">
         <v>8</v>
       </c>
@@ -2813,47 +2918,50 @@
       <c r="U47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>245700</v>
+      </c>
+      <c r="E48" s="3">
         <v>252100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>242500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>230300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>226100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>221200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>214000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>208000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>227800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>177500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>119100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>86800</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>8</v>
       </c>
@@ -2872,26 +2980,29 @@
       <c r="U48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E49" s="3">
         <v>9600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>7900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>8200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>7900</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>8</v>
       </c>
@@ -2904,14 +3015,14 @@
       <c r="L49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M49" s="3">
-        <v>6300</v>
+      <c r="M49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N49" s="3">
         <v>6300</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>8</v>
+      <c r="O49" s="3">
+        <v>6300</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>8</v>
@@ -2931,8 +3042,11 @@
       <c r="U49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,41 +3166,44 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E52" s="3">
         <v>2900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3800</v>
-      </c>
-      <c r="H52" s="3">
-        <v>11500</v>
       </c>
       <c r="I52" s="3">
         <v>11500</v>
       </c>
       <c r="J52" s="3">
+        <v>11500</v>
+      </c>
+      <c r="K52" s="3">
         <v>11300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>11600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>11300</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>8</v>
       </c>
@@ -3096,8 +3216,8 @@
       <c r="Q52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R52" s="3">
-        <v>0</v>
+      <c r="R52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S52" s="3">
         <v>0</v>
@@ -3108,8 +3228,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,47 +3290,50 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>710300</v>
+      </c>
+      <c r="E54" s="3">
         <v>794600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>886100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>960400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1012400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>884800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>941900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>965600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>847800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>885600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1011200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>542500</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>8</v>
       </c>
@@ -3226,8 +3352,11 @@
       <c r="U54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,47 +3402,48 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>19900</v>
+        <v>18300</v>
       </c>
       <c r="E57" s="3">
         <v>19900</v>
       </c>
       <c r="F57" s="3">
+        <v>19900</v>
+      </c>
+      <c r="G57" s="3">
         <v>22600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>20600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>36800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>35900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>34500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>59700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>52700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>40600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>49800</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>8</v>
       </c>
@@ -3331,47 +3462,50 @@
       <c r="U57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E58" s="3">
         <v>11000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>9700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>10700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>10900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>15700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>24400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>30800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>37500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>35400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>29700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>33500</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>8</v>
       </c>
@@ -3390,47 +3524,50 @@
       <c r="U58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>136500</v>
+      </c>
+      <c r="E59" s="3">
         <v>147300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>145400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>130200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>139400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>134000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>151600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>134700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>120600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>118800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>155500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>88000</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>8</v>
       </c>
@@ -3449,47 +3586,50 @@
       <c r="U59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>163300</v>
+      </c>
+      <c r="E60" s="3">
         <v>178200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>175000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>163500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>170900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>186500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>211900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>200000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>217900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>206900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>225800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>171300</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>8</v>
       </c>
@@ -3508,47 +3648,50 @@
       <c r="U60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>731000</v>
+      </c>
+      <c r="E61" s="3">
         <v>730000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>733200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>733400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>734700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>392900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>391300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>389500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>183900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>173200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>189600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>171500</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3567,47 +3710,50 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>19400</v>
+      </c>
+      <c r="E62" s="3">
         <v>20700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>23600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>29400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>26500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>71200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>75400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>78100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>80900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>47400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>45200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>600</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3626,8 +3772,11 @@
       <c r="U62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,47 +3958,50 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>557900</v>
+      </c>
+      <c r="E66" s="3">
         <v>623100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>691600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>747600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>792000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>576700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>627900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>647600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>530400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>552500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>657600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>343300</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>8</v>
       </c>
@@ -3862,8 +4020,11 @@
       <c r="U66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4039,11 +4207,11 @@
         <v>0</v>
       </c>
       <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
         <v>425200</v>
       </c>
-      <c r="O70" s="3">
-        <v>0</v>
-      </c>
       <c r="P70" s="3">
         <v>0</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,47 +4292,50 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-300300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-277700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-248400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-221000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-204200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-175300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-165500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-152900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-143800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-114500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-88300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-226000</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>8</v>
       </c>
@@ -4180,8 +4354,11 @@
       <c r="U72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,47 +4540,50 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>152400</v>
+      </c>
+      <c r="E76" s="3">
         <v>171500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>194500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>212800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>220400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>308100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>314000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>318000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>317300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>333100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>353600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-226000</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>8</v>
       </c>
@@ -4416,8 +4602,11 @@
       <c r="U76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-22600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-29300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-27400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-16900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-28900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-9700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-12600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-26800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-29300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-26200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-88300</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>-20500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-26000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-15000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-14000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-19800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-9400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,56 +4819,57 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>18500</v>
+        <v>18900</v>
       </c>
       <c r="E83" s="3">
         <v>18500</v>
       </c>
       <c r="F83" s="3">
+        <v>18500</v>
+      </c>
+      <c r="G83" s="3">
         <v>16700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>16500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>17000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>14000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>13900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>11400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>11100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>6500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>9700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>4700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>3900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>2200</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S83" s="3" t="s">
         <v>8</v>
       </c>
@@ -4680,8 +4879,11 @@
       <c r="U83" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,56 +5189,59 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-61300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-43500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-38700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-31000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-28300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-14900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>17200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-15400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-70400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-141200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-94100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-97900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-38800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-31600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-35700</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S89" s="3" t="s">
         <v>8</v>
       </c>
@@ -5034,8 +5251,11 @@
       <c r="U89" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,56 +5277,57 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-15100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-36300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-25000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-22300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-23000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-28400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-20900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-19700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-28100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-40000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-34500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-31900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-20600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-10400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3400</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S91" s="3" t="s">
         <v>8</v>
       </c>
@@ -5116,8 +5337,11 @@
       <c r="U91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,56 +5461,59 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-15100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-36300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-25000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-22300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-23000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-28400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-20900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-19700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-28100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-40000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-28200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-38100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-20600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-21900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-14000</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S94" s="3" t="s">
         <v>8</v>
       </c>
@@ -5293,8 +5523,11 @@
       <c r="U94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,56 +5795,59 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-3100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-4900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-5100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>168800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-13000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-12200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>199700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>4500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-47900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>520800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-28800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-13400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>88100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>318900</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S100" s="3" t="s">
         <v>8</v>
       </c>
@@ -5611,8 +5857,11 @@
       <c r="U100" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5620,17 +5869,17 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>-400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>400</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I101" s="3" t="s">
         <v>8</v>
       </c>
@@ -5646,8 +5895,8 @@
       <c r="M101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
+      <c r="N101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O101" s="3">
         <v>0</v>
@@ -5670,56 +5919,59 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-80100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-82800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-69000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-57900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>117800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-56300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-15900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>164500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-94000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-229100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>398500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-164800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-72700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>34600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>269200</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S102" s="3" t="s">
         <v>8</v>
       </c>
@@ -5727,6 +5979,9 @@
         <v>8</v>
       </c>
       <c r="U102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SDC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SDC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="92">
   <si>
     <t>SDC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,295 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>125800</v>
+      </c>
+      <c r="E8" s="3">
         <v>151600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>126300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>137700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>174200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>199500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>184600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>168500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>107100</v>
-      </c>
-      <c r="L8" s="3">
-        <v>196700</v>
       </c>
       <c r="M8" s="3">
         <v>196700</v>
       </c>
       <c r="N8" s="3">
+        <v>196700</v>
+      </c>
+      <c r="O8" s="3">
         <v>180200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>373500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>177700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>128500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>119700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>106600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>68400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>53700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>54300</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>34100</v>
+      </c>
+      <c r="E9" s="3">
         <v>43100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>44400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>39400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>45900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>48000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>48500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>49800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>48800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>59800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>53400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>41400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>83600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>48900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>37700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>35900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>32800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>27600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>22800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>22000</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>91700</v>
+      </c>
+      <c r="E10" s="3">
         <v>108500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>81900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>98300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>128300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>151500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>136100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>118700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>58300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>136900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>143300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>138800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>289900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>128800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>90800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>83800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>73800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>40800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>30900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>32300</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,55 +1104,58 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E14" s="3">
         <v>12800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>2100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>48800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-2300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>5700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>42900</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>29600</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1149,41 +1169,44 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E15" s="3">
         <v>13100</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>11600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>11800</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>9800</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>9400</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>9700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>8100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>8000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>5900</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N15" s="3" t="s">
         <v>8</v>
       </c>
@@ -1199,8 +1222,8 @@
       <c r="R15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S15" s="3">
-        <v>0</v>
+      <c r="S15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T15" s="3">
         <v>0</v>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>180800</v>
+      </c>
+      <c r="E17" s="3">
         <v>223300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>219500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>222700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>227400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>274900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>203800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>196300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>194900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>293100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>289000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>562600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>418900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>194100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>151300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>123400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>108300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>85800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>62300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-55000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-71700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-93200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-85000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-53200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-75400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-19200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-27800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-87800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-96400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-92300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-382400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-45400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-16400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-22800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-3700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-17400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-8600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,300 +1413,313 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>3000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-5000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-400</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-6500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-8600</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-41200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-54200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-75300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-69200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-36600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-59900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-12700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-72100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-90000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-80500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-376300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-35700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-11800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-18900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-8000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-7600</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="V21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E22" s="3">
         <v>1600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>17600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>15400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>15600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>10100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>4000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>4100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>4300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>7400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>4000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>3200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>4600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>3500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>2300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>800</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-65200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-74700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-95700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-89500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-55300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-93900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-31600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-42300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-96100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-105400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-95700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-387100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-52800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-20500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-25900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-14900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-13800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-19800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-9400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>300</v>
+      </c>
+      <c r="E24" s="3">
         <v>-1500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-100</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>1700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-1400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>100</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R24" s="3">
         <v>100</v>
@@ -1685,13 +1731,16 @@
         <v>100</v>
       </c>
       <c r="U24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-65500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-73200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-95400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-89400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-55300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-95600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-33000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-43500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-94700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-107400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-97300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-387600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-52900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-20500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-26000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-15000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-14000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-19800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-9400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-20300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-22600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-29300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-27400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-16900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-28900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-9700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-12600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-26800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-29300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-26200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-88300</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-20500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-26000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-15000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-14000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-19800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-9400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E32" s="3">
         <v>1400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-3000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>5000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>400</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>6500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>8600</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-20300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-22600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-29300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-27400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-16900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-28900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-9700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-12600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-26800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-29300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-26200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-88300</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-20500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-26000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-15000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-14000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-19800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-9400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-20300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-22600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-29300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-27400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-16900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-28900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-9700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-12600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-26800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-29300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-26200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-88300</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-20500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-26000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-15000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-14000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-19800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-9400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,50 +2573,51 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>158300</v>
+      </c>
+      <c r="E41" s="3">
         <v>144700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>224900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>307600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>376600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>434500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>316700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>373000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>389000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>224400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>318500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>547600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>149100</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>8</v>
       </c>
@@ -2549,8 +2636,11 @@
       <c r="V41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,50 +2701,53 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>166500</v>
+      </c>
+      <c r="E43" s="3">
         <v>181700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>184600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>195800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>214300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>225400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>222000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>230200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>232300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>247000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>239400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>224400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>181800</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>8</v>
       </c>
@@ -2673,50 +2766,53 @@
       <c r="V43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>43100</v>
+      </c>
+      <c r="E44" s="3">
         <v>39000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>40800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>39000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>32900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>28600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>29200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>26100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>28600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>28200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>18400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>14600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>13700</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q44" s="3" t="s">
         <v>8</v>
       </c>
@@ -2735,50 +2831,53 @@
       <c r="V44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>23800</v>
+      </c>
+      <c r="E45" s="3">
         <v>24800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>17500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>19900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>18100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>10400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>12800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>15300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>16900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>10400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>14200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>12000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>11600</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2797,50 +2896,53 @@
       <c r="V45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>391700</v>
+      </c>
+      <c r="E46" s="3">
         <v>390200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>467700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>562300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>642000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>698900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>580800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>644700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>666800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>510000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>590500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>798500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>356200</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>8</v>
       </c>
@@ -2859,8 +2961,11 @@
       <c r="V46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2868,41 +2973,41 @@
         <v>61900</v>
       </c>
       <c r="E47" s="3">
+        <v>61900</v>
+      </c>
+      <c r="F47" s="3">
         <v>62200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>69900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>76300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>75600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>71400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>71700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>79500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>98300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>106300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>87300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>93300</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q47" s="3" t="s">
         <v>8</v>
       </c>
@@ -2921,50 +3026,53 @@
       <c r="V47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>234400</v>
+      </c>
+      <c r="E48" s="3">
         <v>245700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>252100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>242500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>230300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>226100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>221200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>214000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>208000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>227800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>177500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>119100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>86800</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>8</v>
       </c>
@@ -2983,29 +3091,32 @@
       <c r="V48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E49" s="3">
         <v>9700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>9600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>7900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>8200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>7900</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>8</v>
       </c>
@@ -3018,14 +3129,14 @@
       <c r="M49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N49" s="3">
-        <v>6300</v>
+      <c r="N49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O49" s="3">
         <v>6300</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>8</v>
+      <c r="P49" s="3">
+        <v>6300</v>
       </c>
       <c r="Q49" s="3" t="s">
         <v>8</v>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,44 +3286,47 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E52" s="3">
         <v>2700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3800</v>
-      </c>
-      <c r="I52" s="3">
-        <v>11500</v>
       </c>
       <c r="J52" s="3">
         <v>11500</v>
       </c>
       <c r="K52" s="3">
+        <v>11500</v>
+      </c>
+      <c r="L52" s="3">
         <v>11300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>11600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>11300</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>8</v>
       </c>
@@ -3219,8 +3339,8 @@
       <c r="R52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S52" s="3">
-        <v>0</v>
+      <c r="S52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T52" s="3">
         <v>0</v>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,50 +3416,53 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>700600</v>
+      </c>
+      <c r="E54" s="3">
         <v>710300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>794600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>886100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>960400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1012400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>884800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>941900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>965600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>847800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>885600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1011200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>542500</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>8</v>
       </c>
@@ -3355,8 +3481,11 @@
       <c r="V54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,50 +3533,51 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>33800</v>
+      </c>
+      <c r="E57" s="3">
         <v>18300</v>
-      </c>
-      <c r="E57" s="3">
-        <v>19900</v>
       </c>
       <c r="F57" s="3">
         <v>19900</v>
       </c>
       <c r="G57" s="3">
+        <v>19900</v>
+      </c>
+      <c r="H57" s="3">
         <v>22600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>20600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>36800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>35900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>34500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>59700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>52700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>40600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>49800</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>8</v>
       </c>
@@ -3465,50 +3596,53 @@
       <c r="V57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E58" s="3">
         <v>8600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>11000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>9700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>10700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>10900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>15700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>24400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>30800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>37500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>35400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>29700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>33500</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>8</v>
       </c>
@@ -3527,50 +3661,53 @@
       <c r="V58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>114300</v>
+      </c>
+      <c r="E59" s="3">
         <v>136500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>147300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>145400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>130200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>139400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>134000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>151600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>134700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>120600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>118800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>155500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>88000</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>8</v>
       </c>
@@ -3589,50 +3726,53 @@
       <c r="V59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>154300</v>
+      </c>
+      <c r="E60" s="3">
         <v>163300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>178200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>175000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>163500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>170900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>186500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>211900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>200000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>217900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>206900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>225800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>171300</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>8</v>
       </c>
@@ -3651,50 +3791,53 @@
       <c r="V60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>786000</v>
+      </c>
+      <c r="E61" s="3">
         <v>731000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>730000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>733200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>733400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>734700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>392900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>391300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>389500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>183900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>173200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>189600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>171500</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -3713,50 +3856,53 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>18800</v>
+      </c>
+      <c r="E62" s="3">
         <v>19400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>20700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>23600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>29400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>26500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>71200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>75400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>78100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>80900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>47400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>45200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>600</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,50 +4116,53 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>559300</v>
+      </c>
+      <c r="E66" s="3">
         <v>557900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>623100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>691600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>747600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>792000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>576700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>627900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>647600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>530400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>552500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>657600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>343300</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>8</v>
       </c>
@@ -4023,8 +4181,11 @@
       <c r="V66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4210,11 +4378,11 @@
         <v>0</v>
       </c>
       <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
         <v>425200</v>
       </c>
-      <c r="P70" s="3">
-        <v>0</v>
-      </c>
       <c r="Q70" s="3">
         <v>0</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,50 +4466,53 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-320600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-300300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-277700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-248400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-221000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-204200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-175300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-165500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-152900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-143800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-114500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-88300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-226000</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>8</v>
       </c>
@@ -4357,8 +4531,11 @@
       <c r="V72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,50 +4726,53 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>141200</v>
+      </c>
+      <c r="E76" s="3">
         <v>152400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>171500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>194500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>212800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>220400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>308100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>314000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>318000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>317300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>333100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>353600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-226000</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>8</v>
       </c>
@@ -4605,8 +4791,11 @@
       <c r="V76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-20300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-22600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-29300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-27400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-16900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-28900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-9700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-12600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-26800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-29300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-26200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-88300</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-20500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-26000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-15000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-14000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-19800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-9400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,59 +5018,60 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>19600</v>
+      </c>
+      <c r="E83" s="3">
         <v>18900</v>
-      </c>
-      <c r="E83" s="3">
-        <v>18500</v>
       </c>
       <c r="F83" s="3">
         <v>18500</v>
       </c>
       <c r="G83" s="3">
+        <v>18500</v>
+      </c>
+      <c r="H83" s="3">
         <v>16700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>16500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>17000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>14000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>13900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>11400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>11100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>6500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>9700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>4700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>3900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>2200</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T83" s="3" t="s">
         <v>8</v>
       </c>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,59 +5406,62 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-61300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-43500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-38700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-31000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-28300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-14900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>17200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-15400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-70400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-141200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-94100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-97900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-38800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-31600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-35700</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T89" s="3" t="s">
         <v>8</v>
       </c>
@@ -5254,8 +5471,11 @@
       <c r="V89" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,59 +5498,60 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-15100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-36300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-25000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-22300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-23000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-28400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-20900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-19700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-28100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-40000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-34500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-31900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-20600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-10400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3400</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T91" s="3" t="s">
         <v>8</v>
       </c>
@@ -5340,8 +5561,11 @@
       <c r="V91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,59 +5691,62 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-15100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-36300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-25000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-22300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-23000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-28400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-20900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-19700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-28100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-40000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-28200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-38100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-20600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-21900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-14000</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T94" s="3" t="s">
         <v>8</v>
       </c>
@@ -5526,8 +5756,11 @@
       <c r="V94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,59 +6041,62 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>49000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-3700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-3100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-4900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-5100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>168800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-13000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-12200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>199700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>4500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-47900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>520800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-28800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-13400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>88100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>318900</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T100" s="3" t="s">
         <v>8</v>
       </c>
@@ -5860,29 +6106,32 @@
       <c r="V100" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>-400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>400</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J101" s="3" t="s">
         <v>8</v>
       </c>
@@ -5898,8 +6147,8 @@
       <c r="N101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
+      <c r="O101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P101" s="3">
         <v>0</v>
@@ -5922,59 +6171,62 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-80100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-82800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-69000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-57900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>117800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-56300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-15900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>164500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-94000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-229100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>398500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-164800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-72700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>34600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>269200</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T102" s="3" t="s">
         <v>8</v>
       </c>
@@ -5982,6 +6234,9 @@
         <v>8</v>
       </c>
       <c r="V102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SDC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SDC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="92">
   <si>
     <t>SDC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>106800</v>
+      </c>
+      <c r="E8" s="3">
         <v>125800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>151600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>126300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>137700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>174200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>199500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>184600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>168500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>107100</v>
-      </c>
-      <c r="M8" s="3">
-        <v>196700</v>
       </c>
       <c r="N8" s="3">
         <v>196700</v>
       </c>
       <c r="O8" s="3">
+        <v>196700</v>
+      </c>
+      <c r="P8" s="3">
         <v>180200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>373500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>177700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>128500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>119700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>106600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>68400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>53700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>54300</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>32000</v>
+      </c>
+      <c r="E9" s="3">
         <v>34100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>43100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>44400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>39400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>45900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>48000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>48500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>49800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>48800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>59800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>53400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>41400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>83600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>48900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>37700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>35900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>32800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>27600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>22800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>22000</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>74800</v>
+      </c>
+      <c r="E10" s="3">
         <v>91700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>108500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>81900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>98300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>128300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>151500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>136100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>118700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>58300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>136900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>143300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>138800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>289900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>128800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>90800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>83800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>73800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>40800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>30900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>32300</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,58 +1124,61 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E14" s="3">
         <v>3200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>12800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>2100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>48800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-2300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>5700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>42900</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>29600</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1172,44 +1192,47 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E15" s="3">
         <v>13900</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>13100</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>11600</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>11800</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>9800</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>9400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>9700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>8100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>8000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>5900</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O15" s="3" t="s">
         <v>8</v>
       </c>
@@ -1225,8 +1248,8 @@
       <c r="S15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T15" s="3">
-        <v>0</v>
+      <c r="T15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U15" s="3">
         <v>0</v>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>169100</v>
+      </c>
+      <c r="E17" s="3">
         <v>180800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>223300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>219500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>222700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>227400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>274900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>203800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>196300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>194900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>293100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>289000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>562600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>418900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>194100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>151300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>123400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>108300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>85800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>62300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-62300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-55000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-71700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-93200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-85000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-53200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-75400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-19200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-27800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-87800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-96400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-92300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-382400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-45400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-16400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-22800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-3700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-17400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-8600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,315 +1447,328 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-5800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>3000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-5000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-400</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>-6500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-8600</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
         <v>0</v>
       </c>
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-44500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-41200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-54200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-75300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-69200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-36600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-59900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-12700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-72100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-90000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-80500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-376300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-35700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-11800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-18900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-8000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-7600</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="W21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E22" s="3">
         <v>4500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>17600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>15400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>15600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>10100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>4000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>4100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>4300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>7400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>4000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>3200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>4600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>3500</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>2300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>800</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-69000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-65200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-74700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-95700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-89500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-55300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-93900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-31600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-42300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-96100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-105400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-95700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-387100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-52800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-20500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-25900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-14900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-13800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-19800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-9400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>700</v>
+      </c>
+      <c r="E24" s="3">
         <v>300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-1500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-100</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>1700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-1400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>100</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S24" s="3">
         <v>100</v>
@@ -1734,13 +1780,16 @@
         <v>100</v>
       </c>
       <c r="V24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-69700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-65500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-73200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-95400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-89400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-55300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-95600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-33000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-43500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-94700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-107400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-97300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-387600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-52900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-20500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-26000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-15000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-14000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-19800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-9400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-21700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-20300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-22600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-29300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-27400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-16900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-28900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-9700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-12600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-26800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-29300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-26200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-88300</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
       <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>-20500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-26000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-15000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-14000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-19800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-9400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E32" s="3">
         <v>5800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-3000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>5000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>400</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>100</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>6500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>8600</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
         <v>0</v>
       </c>
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-21700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-20300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-22600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-29300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-27400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-16900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-28900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-9700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-12600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-26800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-29300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-26200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-88300</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
       <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>-20500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-26000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-15000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-14000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-19800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-9400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-21700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-20300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-22600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-29300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-27400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-16900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-28900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-9700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-12600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-26800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-29300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-26200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-88300</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
       <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>-20500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-26000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-15000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-14000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-19800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-9400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,53 +2660,54 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>120200</v>
+      </c>
+      <c r="E41" s="3">
         <v>158300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>144700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>224900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>307600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>376600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>434500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>316700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>373000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>389000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>224400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>318500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>547600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>149100</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>8</v>
       </c>
@@ -2639,8 +2726,11 @@
       <c r="W41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,53 +2794,56 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>152500</v>
+      </c>
+      <c r="E43" s="3">
         <v>166500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>181700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>184600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>195800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>214300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>225400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>222000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>230200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>232300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>247000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>239400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>224400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>181800</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R43" s="3" t="s">
         <v>8</v>
       </c>
@@ -2769,53 +2862,56 @@
       <c r="W43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>44200</v>
+      </c>
+      <c r="E44" s="3">
         <v>43100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>39000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>40800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>39000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>32900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>28600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>29200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>26100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>28600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>28200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>18400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>14600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>13700</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R44" s="3" t="s">
         <v>8</v>
       </c>
@@ -2834,53 +2930,56 @@
       <c r="W44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>21100</v>
+      </c>
+      <c r="E45" s="3">
         <v>23800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>24800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>17500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>19900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>18100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>10400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>12800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>15300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>16900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>10400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>14200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>12000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>11600</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2899,53 +2998,56 @@
       <c r="W45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>338000</v>
+      </c>
+      <c r="E46" s="3">
         <v>391700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>390200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>467700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>562300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>642000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>698900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>580800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>644700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>666800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>510000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>590500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>798500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>356200</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>8</v>
       </c>
@@ -2964,53 +3066,56 @@
       <c r="W46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>61900</v>
+        <v>56200</v>
       </c>
       <c r="E47" s="3">
         <v>61900</v>
       </c>
       <c r="F47" s="3">
+        <v>61900</v>
+      </c>
+      <c r="G47" s="3">
         <v>62200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>69900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>76300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>75600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>71400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>71700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>79500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>98300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>106300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>87300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>93300</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R47" s="3" t="s">
         <v>8</v>
       </c>
@@ -3029,53 +3134,56 @@
       <c r="W47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>225300</v>
+      </c>
+      <c r="E48" s="3">
         <v>234400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>245700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>252100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>242500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>230300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>226100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>221200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>214000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>208000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>227800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>177500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>119100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>86800</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>8</v>
       </c>
@@ -3094,8 +3202,11 @@
       <c r="W48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3103,23 +3214,23 @@
         <v>10100</v>
       </c>
       <c r="E49" s="3">
+        <v>10100</v>
+      </c>
+      <c r="F49" s="3">
         <v>9700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>9600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>7900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>8200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>7900</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>8</v>
       </c>
@@ -3132,14 +3243,14 @@
       <c r="N49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O49" s="3">
-        <v>6300</v>
+      <c r="O49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P49" s="3">
         <v>6300</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>8</v>
+      <c r="Q49" s="3">
+        <v>6300</v>
       </c>
       <c r="R49" s="3" t="s">
         <v>8</v>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,47 +3406,50 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E52" s="3">
         <v>2400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3800</v>
-      </c>
-      <c r="J52" s="3">
-        <v>11500</v>
       </c>
       <c r="K52" s="3">
         <v>11500</v>
       </c>
       <c r="L52" s="3">
+        <v>11500</v>
+      </c>
+      <c r="M52" s="3">
         <v>11300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>11600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>11300</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>8</v>
       </c>
@@ -3342,8 +3462,8 @@
       <c r="S52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T52" s="3">
-        <v>0</v>
+      <c r="T52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U52" s="3">
         <v>0</v>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,53 +3542,56 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>631800</v>
+      </c>
+      <c r="E54" s="3">
         <v>700600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>710300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>794600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>886100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>960400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1012400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>884800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>941900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>965600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>847800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>885600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1011200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>542500</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>8</v>
       </c>
@@ -3484,8 +3610,11 @@
       <c r="W54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,53 +3664,54 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>36100</v>
+      </c>
+      <c r="E57" s="3">
         <v>33800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>18300</v>
-      </c>
-      <c r="F57" s="3">
-        <v>19900</v>
       </c>
       <c r="G57" s="3">
         <v>19900</v>
       </c>
       <c r="H57" s="3">
+        <v>19900</v>
+      </c>
+      <c r="I57" s="3">
         <v>22600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>20600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>36800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>35900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>34500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>59700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>52700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>40600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>49800</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>8</v>
       </c>
@@ -3599,53 +3730,56 @@
       <c r="W57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E58" s="3">
         <v>6200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>8600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>11000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>9700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>10700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>10900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>15700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>24400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>30800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>37500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>35400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>29700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>33500</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R58" s="3" t="s">
         <v>8</v>
       </c>
@@ -3664,53 +3798,56 @@
       <c r="W58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>107500</v>
+      </c>
+      <c r="E59" s="3">
         <v>114300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>136500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>147300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>145400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>130200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>139400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>134000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>151600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>134700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>120600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>118800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>155500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>88000</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>8</v>
       </c>
@@ -3729,53 +3866,56 @@
       <c r="W59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>147800</v>
+      </c>
+      <c r="E60" s="3">
         <v>154300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>163300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>178200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>175000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>163500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>170900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>186500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>211900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>200000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>217900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>206900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>225800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>171300</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>8</v>
       </c>
@@ -3794,53 +3934,56 @@
       <c r="W60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>788200</v>
+      </c>
+      <c r="E61" s="3">
         <v>786000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>731000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>730000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>733200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>733400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>734700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>392900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>391300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>389500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>183900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>173200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>189600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>171500</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -3859,53 +4002,56 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>17700</v>
+      </c>
+      <c r="E62" s="3">
         <v>18800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>19400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>20700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>23600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>29400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>26500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>71200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>75400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>78100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>80900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>47400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>45200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>600</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,53 +4274,56 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>505300</v>
+      </c>
+      <c r="E66" s="3">
         <v>559300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>557900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>623100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>691600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>747600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>792000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>576700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>627900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>647600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>530400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>552500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>657600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>343300</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>8</v>
       </c>
@@ -4184,8 +4342,11 @@
       <c r="W66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4381,11 +4549,11 @@
         <v>0</v>
       </c>
       <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
         <v>425200</v>
       </c>
-      <c r="Q70" s="3">
-        <v>0</v>
-      </c>
       <c r="R70" s="3">
         <v>0</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,53 +4640,56 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-342300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-320600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-300300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-277700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-248400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-221000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-204200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-175300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-165500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-152900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-143800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-114500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-88300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-226000</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>8</v>
       </c>
@@ -4534,8 +4708,11 @@
       <c r="W72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,53 +4912,56 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>126500</v>
+      </c>
+      <c r="E76" s="3">
         <v>141200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>152400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>171500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>194500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>212800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>220400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>308100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>314000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>318000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>317300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>333100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>353600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-226000</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>8</v>
       </c>
@@ -4794,8 +4980,11 @@
       <c r="W76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-21700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-20300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-22600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-29300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-27400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-16900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-28900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-9700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-12600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-26800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-29300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-26200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-88300</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
       <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>-20500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-26000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-15000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-14000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-19800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-9400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,62 +5217,63 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>19100</v>
+      </c>
+      <c r="E83" s="3">
         <v>19600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>18900</v>
-      </c>
-      <c r="F83" s="3">
-        <v>18500</v>
       </c>
       <c r="G83" s="3">
         <v>18500</v>
       </c>
       <c r="H83" s="3">
+        <v>18500</v>
+      </c>
+      <c r="I83" s="3">
         <v>16700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>16500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>17000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>14000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>13900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>11400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>11100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>6500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>9700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>4700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>3900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>2200</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U83" s="3" t="s">
         <v>8</v>
       </c>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,62 +5623,65 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-27600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-17800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-61300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-43500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-38700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-31000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-28300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-14900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>17200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-15400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-70400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-141200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-94100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-97900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-38800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-31600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-35700</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U89" s="3" t="s">
         <v>8</v>
       </c>
@@ -5474,8 +5691,11 @@
       <c r="W89" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,62 +5719,63 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-17800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-15100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-36300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-25000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-22300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-23000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-28400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-20900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-19700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-28100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-40000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-34500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-31900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-20600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-10400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3400</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U91" s="3" t="s">
         <v>8</v>
       </c>
@@ -5564,8 +5785,11 @@
       <c r="W91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,62 +5921,65 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-17800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-15100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-36300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-25000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-22300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-23000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-28400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-20900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-19700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-28100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-40000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-28200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-38100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-20600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-21900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-14000</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U94" s="3" t="s">
         <v>8</v>
       </c>
@@ -5759,8 +5989,11 @@
       <c r="W94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,62 +6287,65 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E100" s="3">
         <v>49000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-3700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-3100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-4900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-5100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>168800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-13000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-12200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>199700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>4500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-47900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>520800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-28800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-13400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>88100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>318900</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U100" s="3" t="s">
         <v>8</v>
       </c>
@@ -6109,8 +6355,11 @@
       <c r="W100" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6118,23 +6367,23 @@
         <v>100</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
       </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>-400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>400</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
@@ -6150,8 +6399,8 @@
       <c r="O101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
+      <c r="P101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q101" s="3">
         <v>0</v>
@@ -6174,62 +6423,65 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-38100</v>
+      </c>
+      <c r="E102" s="3">
         <v>13500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-80100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-82800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-69000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-57900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>117800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-56300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-15900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>164500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-94000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-229100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>398500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-164800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-72700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>34600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>269200</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U102" s="3" t="s">
         <v>8</v>
       </c>
@@ -6237,6 +6489,9 @@
         <v>8</v>
       </c>
       <c r="W102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SDC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SDC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="92">
   <si>
     <t>SDC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,320 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>86500</v>
+      </c>
+      <c r="E8" s="3">
         <v>106800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>125800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>151600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>126300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>137700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>174200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>199500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>184600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>168500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>107100</v>
-      </c>
-      <c r="N8" s="3">
-        <v>196700</v>
       </c>
       <c r="O8" s="3">
         <v>196700</v>
       </c>
       <c r="P8" s="3">
+        <v>196700</v>
+      </c>
+      <c r="Q8" s="3">
         <v>180200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>373500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>177700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>128500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>119700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>106600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>68400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>53700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>54300</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>33800</v>
+      </c>
+      <c r="E9" s="3">
         <v>32000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>34100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>43100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>44400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>39400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>45900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>48000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>48500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>49800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>48800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>59800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>53400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>41400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>83600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>48900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>37700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>35900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>32800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>27600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>22800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>22000</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>52700</v>
+      </c>
+      <c r="E10" s="3">
         <v>74800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>91700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>108500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>81900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>98300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>128300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>151500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>136100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>118700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>58300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>136900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>143300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>138800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>289900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>128800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>90800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>83800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>73800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>40800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>30900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>32300</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,61 +1143,64 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E14" s="3">
         <v>3400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>3200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>12800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>2100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>48800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-2300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>5700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>42900</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>29600</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
@@ -1195,47 +1214,50 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E15" s="3">
         <v>14000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>13900</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>13100</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>11600</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>11800</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>9800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>9400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>9700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>8100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>8000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>5900</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P15" s="3" t="s">
         <v>8</v>
       </c>
@@ -1251,8 +1273,8 @@
       <c r="T15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U15" s="3">
-        <v>0</v>
+      <c r="U15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V15" s="3">
         <v>0</v>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>159700</v>
+      </c>
+      <c r="E17" s="3">
         <v>169100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>180800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>223300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>219500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>222700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>227400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>274900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>203800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>196300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>194900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>293100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>289000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>562600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>418900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>194100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>151300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>123400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>108300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>85800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>62300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-73200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-62300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-55000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-71700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-93200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-85000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-53200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-75400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-19200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-27800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-87800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-96400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-92300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-382400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-45400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-16400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-22800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-3700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-17400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-8600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,330 +1480,343 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-5800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-5000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-400</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>-6500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-8600</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
         <v>0</v>
       </c>
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-46200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-44500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-41200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-54200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-75300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-69200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-36600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-59900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-12700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-72100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-90000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-80500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-376300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-35700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-11800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-18900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-8000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-7600</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="X21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E22" s="3">
         <v>5400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>4500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>17600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>15400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>15600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>10100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>4000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>4100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>4300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>7400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>4000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>3200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>4600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>3500</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>2300</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>800</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-69600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-69000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-65200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-74700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-95700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-89500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-55300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-93900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-31600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-42300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-96100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-105400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-95700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-387100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-52800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-20500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-25900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-14900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-13800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-19800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-9400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E24" s="3">
         <v>700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-1500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-100</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>1700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-1400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>100</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
       <c r="S24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T24" s="3">
         <v>100</v>
@@ -1783,13 +1828,16 @@
         <v>100</v>
       </c>
       <c r="W24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-69400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-69700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-65500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-73200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-95400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-89400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-55300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-95600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-33000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-43500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-94700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-107400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-97300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-387600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-52900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-20500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-26000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-15000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-14000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-19800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-9400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-21800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-21700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-20300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-22600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-29300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-27400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-16900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-28900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-9700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-12600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-26800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-29300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-26200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-88300</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
       <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>-20500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-26000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-15000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-14000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-19800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-9400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2330,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="E32" s="3">
         <v>1400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>5800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>5000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>400</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>100</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>6500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>8600</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
         <v>0</v>
       </c>
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-21800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-21700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-20300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-22600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-29300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-27400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-16900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-28900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-9700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-12600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-26800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-29300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-26200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-88300</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
       <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>-20500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-26000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-15000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-14000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-19800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-9400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-21800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-21700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-20300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-22600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-29300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-27400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-16900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-28900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-9700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-12600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-26800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-29300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-26200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-88300</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
       <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>-20500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-26000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-15000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-14000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-19800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-9400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,56 +2746,57 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>93100</v>
+      </c>
+      <c r="E41" s="3">
         <v>120200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>158300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>144700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>224900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>307600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>376600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>434500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>316700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>373000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>389000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>224400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>318500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>547600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>149100</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S41" s="3" t="s">
         <v>8</v>
       </c>
@@ -2729,8 +2815,11 @@
       <c r="X41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,56 +2886,59 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>143100</v>
+      </c>
+      <c r="E43" s="3">
         <v>152500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>166500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>181700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>184600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>195800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>214300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>225400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>222000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>230200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>232300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>247000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>239400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>224400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>181800</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S43" s="3" t="s">
         <v>8</v>
       </c>
@@ -2865,56 +2957,59 @@
       <c r="X43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>44400</v>
+      </c>
+      <c r="E44" s="3">
         <v>44200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>43100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>39000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>40800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>39000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>32900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>28600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>29200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>26100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>28600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>28200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>18400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>14600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>13700</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S44" s="3" t="s">
         <v>8</v>
       </c>
@@ -2933,56 +3028,59 @@
       <c r="X44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E45" s="3">
         <v>21100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>23800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>24800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>17500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>19900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>18100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>10400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>12800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>15300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>16900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>10400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>14200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>12000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>11600</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S45" s="3" t="s">
         <v>8</v>
       </c>
@@ -3001,56 +3099,59 @@
       <c r="X45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>297400</v>
+      </c>
+      <c r="E46" s="3">
         <v>338000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>391700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>390200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>467700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>562300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>642000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>698900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>580800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>644700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>666800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>510000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>590500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>798500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>356200</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S46" s="3" t="s">
         <v>8</v>
       </c>
@@ -3069,56 +3170,59 @@
       <c r="X46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>50800</v>
+      </c>
+      <c r="E47" s="3">
         <v>56200</v>
-      </c>
-      <c r="E47" s="3">
-        <v>61900</v>
       </c>
       <c r="F47" s="3">
         <v>61900</v>
       </c>
       <c r="G47" s="3">
+        <v>61900</v>
+      </c>
+      <c r="H47" s="3">
         <v>62200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>69900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>76300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>75600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>71400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>71700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>79500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>98300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>106300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>87300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>93300</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S47" s="3" t="s">
         <v>8</v>
       </c>
@@ -3137,56 +3241,59 @@
       <c r="X47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>211200</v>
+      </c>
+      <c r="E48" s="3">
         <v>225300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>234400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>245700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>252100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>242500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>230300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>226100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>221200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>214000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>208000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>227800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>177500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>119100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>86800</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S48" s="3" t="s">
         <v>8</v>
       </c>
@@ -3205,35 +3312,38 @@
       <c r="X48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>10100</v>
+        <v>10500</v>
       </c>
       <c r="E49" s="3">
         <v>10100</v>
       </c>
       <c r="F49" s="3">
+        <v>10100</v>
+      </c>
+      <c r="G49" s="3">
         <v>9700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>9600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>7900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>8200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>7900</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>8</v>
       </c>
@@ -3246,14 +3356,14 @@
       <c r="O49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P49" s="3">
-        <v>6300</v>
+      <c r="P49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q49" s="3">
         <v>6300</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>8</v>
+      <c r="R49" s="3">
+        <v>6300</v>
       </c>
       <c r="S49" s="3" t="s">
         <v>8</v>
@@ -3273,8 +3383,11 @@
       <c r="X49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,50 +3525,53 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>27100</v>
+      </c>
+      <c r="E52" s="3">
         <v>2000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3800</v>
-      </c>
-      <c r="K52" s="3">
-        <v>11500</v>
       </c>
       <c r="L52" s="3">
         <v>11500</v>
       </c>
       <c r="M52" s="3">
+        <v>11500</v>
+      </c>
+      <c r="N52" s="3">
         <v>11300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>11600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>11300</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>8</v>
       </c>
@@ -3465,8 +3584,8 @@
       <c r="T52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U52" s="3">
-        <v>0</v>
+      <c r="U52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V52" s="3">
         <v>0</v>
@@ -3477,8 +3596,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,56 +3667,59 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>597100</v>
+      </c>
+      <c r="E54" s="3">
         <v>631800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>700600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>710300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>794600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>886100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>960400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1012400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>884800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>941900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>965600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>847800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>885600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1011200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>542500</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>8</v>
       </c>
@@ -3613,8 +3738,11 @@
       <c r="X54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,56 +3794,57 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>30500</v>
+      </c>
+      <c r="E57" s="3">
         <v>36100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>33800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>18300</v>
-      </c>
-      <c r="G57" s="3">
-        <v>19900</v>
       </c>
       <c r="H57" s="3">
         <v>19900</v>
       </c>
       <c r="I57" s="3">
+        <v>19900</v>
+      </c>
+      <c r="J57" s="3">
         <v>22600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>20600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>36800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>35900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>34500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>59700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>52700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>40600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>49800</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S57" s="3" t="s">
         <v>8</v>
       </c>
@@ -3733,56 +3863,59 @@
       <c r="X57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>4200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>6200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>8600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>11000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>9700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>10700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>10900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>15700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>24400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>30800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>37500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>35400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>29700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>33500</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S58" s="3" t="s">
         <v>8</v>
       </c>
@@ -3801,56 +3934,59 @@
       <c r="X58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>86300</v>
+      </c>
+      <c r="E59" s="3">
         <v>107500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>114300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>136500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>147300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>145400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>130200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>139400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>134000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>151600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>134700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>120600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>118800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>155500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>88000</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>8</v>
       </c>
@@ -3869,56 +4005,59 @@
       <c r="X59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>116800</v>
+      </c>
+      <c r="E60" s="3">
         <v>147800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>154300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>163300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>178200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>175000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>163500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>170900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>186500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>211900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>200000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>217900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>206900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>225800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>171300</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S60" s="3" t="s">
         <v>8</v>
       </c>
@@ -3937,56 +4076,59 @@
       <c r="X60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>849400</v>
+      </c>
+      <c r="E61" s="3">
         <v>788200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>786000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>731000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>730000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>733200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>733400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>734700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>392900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>391300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>389500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>183900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>173200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>189600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>171500</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
@@ -4005,56 +4147,59 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E62" s="3">
         <v>17700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>18800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>19400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>20700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>23600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>29400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>26500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>71200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>75400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>78100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>80900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>47400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>45200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>600</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S62" s="3" t="s">
         <v>8</v>
       </c>
@@ -4073,8 +4218,11 @@
       <c r="X62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,56 +4431,59 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>485700</v>
+      </c>
+      <c r="E66" s="3">
         <v>505300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>559300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>557900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>623100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>691600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>747600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>792000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>576700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>627900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>647600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>530400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>552500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>657600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>343300</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>8</v>
       </c>
@@ -4345,8 +4502,11 @@
       <c r="X66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4552,11 +4719,11 @@
         <v>0</v>
       </c>
       <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
         <v>425200</v>
       </c>
-      <c r="R70" s="3">
-        <v>0</v>
-      </c>
       <c r="S70" s="3">
         <v>0</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,56 +4813,59 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-364100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-342300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-320600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-300300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-277700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-248400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-221000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-204200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-175300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-165500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-152900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-143800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-114500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-88300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-226000</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>8</v>
       </c>
@@ -4711,8 +4884,11 @@
       <c r="X72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,56 +5097,59 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>111400</v>
+      </c>
+      <c r="E76" s="3">
         <v>126500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>141200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>152400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>171500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>194500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>212800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>220400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>308100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>314000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>318000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>317300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>333100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>353600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-226000</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>8</v>
       </c>
@@ -4983,8 +5168,11 @@
       <c r="X76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-21800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-21700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-20300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-22600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-29300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-27400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-16900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-28900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-9700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-12600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-26800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-29300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-26200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-88300</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
       <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>-20500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-26000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-15000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-14000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-19800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-9400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,65 +5415,66 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E83" s="3">
         <v>19100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>19600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>18900</v>
-      </c>
-      <c r="G83" s="3">
-        <v>18500</v>
       </c>
       <c r="H83" s="3">
         <v>18500</v>
       </c>
       <c r="I83" s="3">
+        <v>18500</v>
+      </c>
+      <c r="J83" s="3">
         <v>16700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>16500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>17000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>14000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>13900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>11400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>11100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>6500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>9700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>4700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>3900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>2200</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V83" s="3" t="s">
         <v>8</v>
       </c>
@@ -5286,8 +5484,11 @@
       <c r="X83" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,65 +5839,68 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-51500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-27600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-17800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-61300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-43500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-38700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-31000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-28300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-14900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>17200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-15400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-70400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-141200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-94100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-97900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-38800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-31600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-35700</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V89" s="3" t="s">
         <v>8</v>
       </c>
@@ -5694,8 +5910,11 @@
       <c r="X89" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,65 +5939,66 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-7300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-17800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-15100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-36300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-25000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-22300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-23000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-28400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-20900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-19700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-28100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-40000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-34500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-31900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-20600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-10400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-3400</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V91" s="3" t="s">
         <v>8</v>
       </c>
@@ -5788,8 +6008,11 @@
       <c r="X91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,65 +6150,68 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-7300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-17800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-15100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-36300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-25000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-22300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-23000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-28400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-20900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-19700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-28100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-40000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-28200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-38100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-20600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-21900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-14000</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V94" s="3" t="s">
         <v>8</v>
       </c>
@@ -5992,8 +6221,11 @@
       <c r="X94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,65 +6532,68 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>61400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-3300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>49000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-3700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-3100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-4900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-5100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>168800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-13000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-12200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>199700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>4500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-47900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>520800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-28800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-13400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>88100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>318900</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V100" s="3" t="s">
         <v>8</v>
       </c>
@@ -6358,8 +6603,11 @@
       <c r="X100" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6370,23 +6618,23 @@
         <v>100</v>
       </c>
       <c r="F101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>-400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>400</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L101" s="3" t="s">
         <v>8</v>
       </c>
@@ -6402,8 +6650,8 @@
       <c r="P101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
+      <c r="Q101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R101" s="3">
         <v>0</v>
@@ -6426,65 +6674,68 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-38100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>13500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-80100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-82800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-69000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-57900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>117800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-56300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-15900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>164500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-94000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-229100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>398500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-164800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-72700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>34600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>269200</v>
       </c>
-      <c r="U102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V102" s="3" t="s">
         <v>8</v>
       </c>
@@ -6492,6 +6743,9 @@
         <v>8</v>
       </c>
       <c r="X102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SDC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SDC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="92">
   <si>
     <t>SDC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,320 +665,333 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>119800</v>
+      </c>
+      <c r="E8" s="3">
         <v>86500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>106800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>125800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>151600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>126300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>137700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>174200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>199500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>184600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>168500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>107100</v>
-      </c>
-      <c r="O8" s="3">
-        <v>196700</v>
       </c>
       <c r="P8" s="3">
         <v>196700</v>
       </c>
       <c r="Q8" s="3">
+        <v>196700</v>
+      </c>
+      <c r="R8" s="3">
         <v>180200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>373500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>177700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>128500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>119700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>106600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>68400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>53700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>54300</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>32900</v>
+      </c>
+      <c r="E9" s="3">
         <v>33800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>32000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>34100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>43100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>44400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>39400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>45900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>48000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>48500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>49800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>48800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>59800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>53400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>41400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>83600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>48900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>37700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>35900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>32800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>27600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>22800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>22000</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>86900</v>
+      </c>
+      <c r="E10" s="3">
         <v>52700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>74800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>91700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>108500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>81900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>98300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>128300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>151500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>136100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>118700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>58300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>136900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>143300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>138800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>289900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>128800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>90800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>83800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>73800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>40800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>30900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>32300</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1075,8 +1089,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,64 +1163,67 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E14" s="3">
         <v>1700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>3400</v>
       </c>
-      <c r="F14" s="3">
-        <v>3200</v>
-      </c>
       <c r="G14" s="3">
-        <v>12800</v>
+        <v>3100</v>
       </c>
       <c r="H14" s="3">
-        <v>2100</v>
+        <v>12600</v>
       </c>
       <c r="I14" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J14" s="3">
         <v>1500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>48800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-2300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>5700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>42900</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>29600</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
@@ -1217,50 +1237,53 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E15" s="3">
         <v>11000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>14000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>13900</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>13100</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>11600</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>11800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>9800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>9400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>9700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>8100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>8000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>5900</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q15" s="3" t="s">
         <v>8</v>
       </c>
@@ -1276,8 +1299,8 @@
       <c r="U15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V15" s="3">
-        <v>0</v>
+      <c r="V15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W15" s="3">
         <v>0</v>
@@ -1288,8 +1311,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1338,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>179000</v>
+      </c>
+      <c r="E17" s="3">
         <v>159700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>169100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>180800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>223300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>219500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>222700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>227400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>274900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>203800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>196300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>194900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>293100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>289000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>562600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>418900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>194100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>151300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>123400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>108300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>85800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>62300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-59200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-73200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-62300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-55000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-71700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-93200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-85000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-53200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-75400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-19200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-27800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-87800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-96400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-92300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-382400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-45400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-16400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-22800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-3700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-1700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-17400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-8600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,345 +1514,358 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E20" s="3">
         <v>10200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-5800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-5000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-400</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>-100</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>-6500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-8600</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
       <c r="X20" s="3">
         <v>0</v>
       </c>
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-41800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-46200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-44500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-41200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-54200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-75300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-69200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-36600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-59900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-12700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-72100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-90000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-80500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-376300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-35700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-11800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-18900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-8000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-7600</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Y21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E22" s="3">
         <v>6600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>5400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>4500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>17600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>15400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>15600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>10100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>4000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>4100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>4300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>7400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>4000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>3200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>4600</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>3500</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>2300</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>800</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-65400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-69600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-69000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-65200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-74700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-95700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-89500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-55300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-93900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-31600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-42300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-96100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-105400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-95700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-387100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-52800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-20500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-25900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-14900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-13800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-19800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-9400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>300</v>
+      </c>
+      <c r="E24" s="3">
         <v>-200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-1500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-100</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>1700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-1400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>100</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
       <c r="T24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U24" s="3">
         <v>100</v>
@@ -1831,13 +1877,16 @@
         <v>100</v>
       </c>
       <c r="X24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-65700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-69400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-69700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-65500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-73200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-95400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-89400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-55300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-95600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-33000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-43500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-94700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-107400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-97300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-387600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-52900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-20500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-26000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-15000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-14000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-19800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-9400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-21400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-21800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-21700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-20300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-22600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-29300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-27400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-16900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-28900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-9700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-12600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-26800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-29300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-26200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-88300</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
       <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
         <v>-20500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-26000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-15000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-14000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-19800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-9400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2252,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,150 +2400,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-10200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>5800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>5000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>400</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>100</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>6500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>8600</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
       <c r="X32" s="3">
         <v>0</v>
       </c>
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-21400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-21800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-21700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-20300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-22600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-29300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-27400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-16900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-28900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-9700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-12600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-26800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-29300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-26200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-88300</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
       <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
         <v>-20500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-26000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-15000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-14000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-19800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-9400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-21400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-21800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-21700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-20300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-22600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-29300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-27400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-16900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-28900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-9700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-12600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-26800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-29300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-26200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-88300</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
       <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
         <v>-20500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-26000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-15000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-14000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-19800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-9400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,59 +2833,60 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>59100</v>
+      </c>
+      <c r="E41" s="3">
         <v>93100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>120200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>158300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>144700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>224900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>307600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>376600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>434500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>316700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>373000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>389000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>224400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>318500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>547600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>149100</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T41" s="3" t="s">
         <v>8</v>
       </c>
@@ -2818,8 +2905,11 @@
       <c r="Y41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2889,59 +2979,62 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>135700</v>
+      </c>
+      <c r="E43" s="3">
         <v>143100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>152500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>166500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>181700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>184600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>195800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>214300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>225400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>222000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>230200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>232300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>247000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>239400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>224400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>181800</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T43" s="3" t="s">
         <v>8</v>
       </c>
@@ -2960,59 +3053,62 @@
       <c r="Y43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>40000</v>
+      </c>
+      <c r="E44" s="3">
         <v>44400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>44200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>43100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>39000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>40800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>39000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>32900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>28600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>29200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>26100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>28600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>28200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>18400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>14600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>13700</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T44" s="3" t="s">
         <v>8</v>
       </c>
@@ -3031,59 +3127,62 @@
       <c r="Y44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E45" s="3">
         <v>16800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>21100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>23800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>24800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>17500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>19900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>18100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>10400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>12800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>15300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>16900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>10400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>14200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>12000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>11600</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T45" s="3" t="s">
         <v>8</v>
       </c>
@@ -3102,59 +3201,62 @@
       <c r="Y45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>251600</v>
+      </c>
+      <c r="E46" s="3">
         <v>297400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>338000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>391700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>390200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>467700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>562300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>642000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>698900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>580800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>644700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>666800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>510000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>590500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>798500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>356200</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T46" s="3" t="s">
         <v>8</v>
       </c>
@@ -3173,59 +3275,62 @@
       <c r="Y46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>53700</v>
+      </c>
+      <c r="E47" s="3">
         <v>50800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>56200</v>
-      </c>
-      <c r="F47" s="3">
-        <v>61900</v>
       </c>
       <c r="G47" s="3">
         <v>61900</v>
       </c>
       <c r="H47" s="3">
+        <v>61900</v>
+      </c>
+      <c r="I47" s="3">
         <v>62200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>69900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>76300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>75600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>71400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>71700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>79500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>98300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>106300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>87300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>93300</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T47" s="3" t="s">
         <v>8</v>
       </c>
@@ -3244,59 +3349,62 @@
       <c r="Y47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>200600</v>
+      </c>
+      <c r="E48" s="3">
         <v>211200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>225300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>234400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>245700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>252100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>242500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>230300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>226100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>221200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>214000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>208000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>227800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>177500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>119100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>86800</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T48" s="3" t="s">
         <v>8</v>
       </c>
@@ -3315,38 +3423,41 @@
       <c r="Y48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E49" s="3">
         <v>10500</v>
-      </c>
-      <c r="E49" s="3">
-        <v>10100</v>
       </c>
       <c r="F49" s="3">
         <v>10100</v>
       </c>
       <c r="G49" s="3">
+        <v>10100</v>
+      </c>
+      <c r="H49" s="3">
         <v>9700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>9600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>7900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>8200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>7900</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>8</v>
       </c>
@@ -3359,14 +3470,14 @@
       <c r="P49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q49" s="3">
-        <v>6300</v>
+      <c r="Q49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R49" s="3">
         <v>6300</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>8</v>
+      <c r="S49" s="3">
+        <v>6300</v>
       </c>
       <c r="T49" s="3" t="s">
         <v>8</v>
@@ -3386,8 +3497,11 @@
       <c r="Y49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,53 +3645,56 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>28700</v>
+      </c>
+      <c r="E52" s="3">
         <v>27100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3800</v>
-      </c>
-      <c r="L52" s="3">
-        <v>11500</v>
       </c>
       <c r="M52" s="3">
         <v>11500</v>
       </c>
       <c r="N52" s="3">
+        <v>11500</v>
+      </c>
+      <c r="O52" s="3">
         <v>11300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>11600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>11300</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>8</v>
       </c>
@@ -3587,8 +3707,8 @@
       <c r="U52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V52" s="3">
-        <v>0</v>
+      <c r="V52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W52" s="3">
         <v>0</v>
@@ -3599,8 +3719,11 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,59 +3793,62 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>545600</v>
+      </c>
+      <c r="E54" s="3">
         <v>597100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>631800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>700600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>710300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>794600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>886100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>960400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1012400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>884800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>941900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>965600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>847800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>885600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1011200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>542500</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T54" s="3" t="s">
         <v>8</v>
       </c>
@@ -3741,8 +3867,11 @@
       <c r="Y54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,59 +3925,60 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>34900</v>
+      </c>
+      <c r="E57" s="3">
         <v>30500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>36100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>33800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>18300</v>
-      </c>
-      <c r="H57" s="3">
-        <v>19900</v>
       </c>
       <c r="I57" s="3">
         <v>19900</v>
       </c>
       <c r="J57" s="3">
+        <v>19900</v>
+      </c>
+      <c r="K57" s="3">
         <v>22600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>20600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>36800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>35900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>34500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>59700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>52700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>40600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>49800</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T57" s="3" t="s">
         <v>8</v>
       </c>
@@ -3866,59 +3997,62 @@
       <c r="Y57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>4200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>6200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>8600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>11000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>9700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>10700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>10900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>15700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>24400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>30800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>37500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>35400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>29700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>33500</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T58" s="3" t="s">
         <v>8</v>
       </c>
@@ -3937,59 +4071,62 @@
       <c r="Y58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>77400</v>
+      </c>
+      <c r="E59" s="3">
         <v>86300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>107500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>114300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>136500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>147300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>145400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>130200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>139400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>134000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>151600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>134700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>120600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>118800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>155500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>88000</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T59" s="3" t="s">
         <v>8</v>
       </c>
@@ -4008,59 +4145,62 @@
       <c r="Y59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>112200</v>
+      </c>
+      <c r="E60" s="3">
         <v>116800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>147800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>154300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>163300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>178200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>175000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>163500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>170900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>186500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>211900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>200000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>217900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>206900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>225800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>171300</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T60" s="3" t="s">
         <v>8</v>
       </c>
@@ -4079,59 +4219,62 @@
       <c r="Y60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>860200</v>
+      </c>
+      <c r="E61" s="3">
         <v>849400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>788200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>786000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>731000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>730000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>733200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>733400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>734700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>392900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>391300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>389500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>183900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>173200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>189600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>171500</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
@@ -4150,59 +4293,62 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E62" s="3">
         <v>16100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>17700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>18800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>19400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>20700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>23600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>29400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>26500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>71200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>75400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>78100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>80900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>47400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>45200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>600</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T62" s="3" t="s">
         <v>8</v>
       </c>
@@ -4221,8 +4367,11 @@
       <c r="Y62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,59 +4589,62 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>447100</v>
+      </c>
+      <c r="E66" s="3">
         <v>485700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>505300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>559300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>557900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>623100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>691600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>747600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>792000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>576700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>627900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>647600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>530400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>552500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>657600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>343300</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T66" s="3" t="s">
         <v>8</v>
       </c>
@@ -4505,8 +4663,11 @@
       <c r="Y66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4722,11 +4890,11 @@
         <v>0</v>
       </c>
       <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
         <v>425200</v>
       </c>
-      <c r="S70" s="3">
-        <v>0</v>
-      </c>
       <c r="T70" s="3">
         <v>0</v>
       </c>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,59 +4987,62 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-385500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-364100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-342300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-320600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-300300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-277700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-248400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-221000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-204200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-175300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-165500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-152900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-143800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-114500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-88300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-226000</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T72" s="3" t="s">
         <v>8</v>
       </c>
@@ -4887,8 +5061,11 @@
       <c r="Y72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,59 +5283,62 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>98600</v>
+      </c>
+      <c r="E76" s="3">
         <v>111400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>126500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>141200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>152400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>171500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>194500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>212800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>220400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>308100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>314000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>318000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>317300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>333100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>353600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-226000</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T76" s="3" t="s">
         <v>8</v>
       </c>
@@ -5171,8 +5357,11 @@
       <c r="Y76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-21400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-21800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-21700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-20300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-22600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-29300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-27400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-16900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-28900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-9700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-12600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-26800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-29300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-26200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-88300</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
       <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
         <v>-20500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-26000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-15000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-14000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-19800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-9400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,68 +5614,69 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E83" s="3">
         <v>16800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>19100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>19600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>18900</v>
-      </c>
-      <c r="H83" s="3">
-        <v>18500</v>
       </c>
       <c r="I83" s="3">
         <v>18500</v>
       </c>
       <c r="J83" s="3">
+        <v>18500</v>
+      </c>
+      <c r="K83" s="3">
         <v>16700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>16500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>17000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>14000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>13900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>11400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>11100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>6500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>9700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>4700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>3900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>2200</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W83" s="3" t="s">
         <v>8</v>
       </c>
@@ -5487,8 +5686,11 @@
       <c r="Y83" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,68 +6056,71 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-32600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-51500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-27600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-17800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-61300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-43500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-38700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-31000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-28300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-14900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>17200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-15400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-70400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-141200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-94100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-97900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-38800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-31600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-35700</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W89" s="3" t="s">
         <v>8</v>
       </c>
@@ -5913,8 +6130,11 @@
       <c r="Y89" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,68 +6160,69 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-11800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-7300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-17800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-15100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-36300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-25000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-22300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-23000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-28400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-20900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-19700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-28100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-40000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-34500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-31900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-20600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-10400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-3400</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W91" s="3" t="s">
         <v>8</v>
       </c>
@@ -6011,8 +6232,11 @@
       <c r="Y91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,68 +6380,71 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-11800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-7300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-17800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-15100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-36300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-25000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-22300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-23000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-28400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-20900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-19700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-28100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-40000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-28200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-38100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-20600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-21900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-14000</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W94" s="3" t="s">
         <v>8</v>
       </c>
@@ -6224,8 +6454,11 @@
       <c r="Y94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,68 +6778,71 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E100" s="3">
         <v>61400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-3300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>49000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-3700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-3100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-4900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-5100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>168800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-13000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-12200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>199700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>4500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-47900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>520800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-28800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-13400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>88100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>318900</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W100" s="3" t="s">
         <v>8</v>
       </c>
@@ -6606,13 +6852,16 @@
       <c r="Y100" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E101" s="3">
         <v>100</v>
@@ -6621,23 +6870,23 @@
         <v>100</v>
       </c>
       <c r="G101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>-400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>400</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M101" s="3" t="s">
         <v>8</v>
       </c>
@@ -6653,8 +6902,8 @@
       <c r="Q101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
+      <c r="R101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S101" s="3">
         <v>0</v>
@@ -6677,68 +6926,71 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-32100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-38100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>13500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-80100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-82800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-69000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-57900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>117800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-56300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-15900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>164500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-94000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-229100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>398500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-164800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-72700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>34600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>269200</v>
       </c>
-      <c r="V102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W102" s="3" t="s">
         <v>8</v>
       </c>
@@ -6746,6 +6998,9 @@
         <v>8</v>
       </c>
       <c r="Y102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SDC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SDC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="92">
   <si>
     <t>SDC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,333 +665,346 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>101800</v>
+      </c>
+      <c r="E8" s="3">
         <v>119800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>86500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>106800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>125800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>151600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>126300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>137700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>174200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>199500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>184600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>168500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>107100</v>
-      </c>
-      <c r="P8" s="3">
-        <v>196700</v>
       </c>
       <c r="Q8" s="3">
         <v>196700</v>
       </c>
       <c r="R8" s="3">
+        <v>196700</v>
+      </c>
+      <c r="S8" s="3">
         <v>180200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>373500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>177700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>128500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>119700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>106600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>68400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>53700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>54300</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>28900</v>
+      </c>
+      <c r="E9" s="3">
         <v>32900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>33800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>32000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>34100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>43100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>44400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>39400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>45900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>48000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>48500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>49800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>48800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>59800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>53400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>41400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>83600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>48900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>37700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>35900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>32800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>27600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>22800</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>22000</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>72900</v>
+      </c>
+      <c r="E10" s="3">
         <v>86900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>52700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>74800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>91700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>108500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>81900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>98300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>128300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>151500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>136100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>118700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>58300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>136900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>143300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>138800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>289900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>128800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>90800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>83800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>73800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>40800</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>30900</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>32300</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,67 +1183,70 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E14" s="3">
         <v>8600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>3400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>3100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>12600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>48800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-2300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>5700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>42900</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>29600</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V14" s="3">
-        <v>0</v>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W14" s="3">
         <v>0</v>
@@ -1240,53 +1260,56 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E15" s="3">
         <v>11300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>11000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>14000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>13900</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>13100</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>11600</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>11800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>9800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>9400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>9700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>8100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>8000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>5900</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R15" s="3" t="s">
         <v>8</v>
       </c>
@@ -1302,8 +1325,8 @@
       <c r="V15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W15" s="3">
-        <v>0</v>
+      <c r="W15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X15" s="3">
         <v>0</v>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>146800</v>
+      </c>
+      <c r="E17" s="3">
         <v>179000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>159700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>169100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>180800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>223300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>219500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>222700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>227400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>274900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>203800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>196300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>194900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>293100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>289000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>562600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>418900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>194100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>151300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>123400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>108300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>85800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>62300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-45000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-59200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-73200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-62300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-55000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-71700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-93200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-85000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-53200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-75400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-19200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-27800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-87800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-96400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-92300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-382400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-45400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-16400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-22800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-3700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-1700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-17400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-8600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,360 +1548,373 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>200</v>
+      </c>
+      <c r="E20" s="3">
         <v>1500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>10200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-5800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>3000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-400</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>-100</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>-6500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-8600</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
       <c r="Y20" s="3">
         <v>0</v>
       </c>
       <c r="Z20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-29300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-41800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-46200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-44500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-41200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-54200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-75300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-69200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-36600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-59900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-12700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-72100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-90000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-80500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-376300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-35700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-11800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-18900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-8000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-7600</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Z21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E22" s="3">
         <v>7700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>6600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>5400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>4500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>17600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>15400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>15600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>10100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>4000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>4100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>4300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>7400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>4000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>3200</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>4600</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>3500</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>2300</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>800</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-53300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-65400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-69600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-69000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-65200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-74700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-95700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-89500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-55300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-93900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-31600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-42300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-96100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-105400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-95700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-387100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-52800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-20500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-25900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-14900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-13800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-19800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-9400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>500</v>
+      </c>
+      <c r="E24" s="3">
         <v>300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-1500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-100</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>1700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-1400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>100</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
       <c r="U24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V24" s="3">
         <v>100</v>
@@ -1880,13 +1926,16 @@
         <v>100</v>
       </c>
       <c r="Y24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-53800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-65700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-69400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-69700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-65500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-73200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-95400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-89400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-55300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-95600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-33000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-43500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-94700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-107400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-97300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-387600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-52900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-20500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-26000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-15000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-14000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-19800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-9400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-21400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-21800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-21700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-20300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-22600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-29300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-27400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-16900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-28900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-9700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-12600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-26800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-29300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-26200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-88300</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
       <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
         <v>-20500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-26000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-15000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-14000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-19800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-9400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,156 +2470,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-10200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>5800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-3000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>5000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>400</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>100</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>6500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>8600</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
       <c r="Y32" s="3">
         <v>0</v>
       </c>
       <c r="Z32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-21400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-21800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-21700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-20300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-22600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-29300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-27400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-16900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-28900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-9700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-12600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-26800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-29300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-26200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-88300</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
       <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
         <v>-20500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-26000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-15000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-14000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-19800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-9400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-21400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-21800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-21700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-20300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-22600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-29300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-27400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-16900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-28900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-9700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-12600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-26800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-29300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-26200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-88300</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
       <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
         <v>-20500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-26000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-15000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-14000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-19800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-9400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,62 +2920,63 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>28900</v>
+      </c>
+      <c r="E41" s="3">
         <v>59100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>93100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>120200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>158300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>144700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>224900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>307600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>376600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>434500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>316700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>373000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>389000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>224400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>318500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>547600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>149100</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U41" s="3" t="s">
         <v>8</v>
       </c>
@@ -2908,8 +2995,11 @@
       <c r="Z41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2982,62 +3072,65 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>130100</v>
+      </c>
+      <c r="E43" s="3">
         <v>135700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>143100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>152500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>166500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>181700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>184600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>195800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>214300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>225400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>222000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>230200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>232300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>247000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>239400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>224400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>181800</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U43" s="3" t="s">
         <v>8</v>
       </c>
@@ -3056,62 +3149,65 @@
       <c r="Z43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>35600</v>
+      </c>
+      <c r="E44" s="3">
         <v>40000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>44400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>44200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>43100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>39000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>40800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>39000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>32900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>28600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>29200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>26100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>28600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>28200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>18400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>14600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>13700</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U44" s="3" t="s">
         <v>8</v>
       </c>
@@ -3130,62 +3226,65 @@
       <c r="Z44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>17900</v>
+      </c>
+      <c r="E45" s="3">
         <v>16700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>16800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>21100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>23800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>24800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>17500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>19900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>18100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>10400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>12800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>15300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>16900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>10400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>14200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>12000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>11600</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U45" s="3" t="s">
         <v>8</v>
       </c>
@@ -3204,62 +3303,65 @@
       <c r="Z45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>212500</v>
+      </c>
+      <c r="E46" s="3">
         <v>251600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>297400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>338000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>391700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>390200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>467700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>562300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>642000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>698900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>580800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>644700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>666800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>510000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>590500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>798500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>356200</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U46" s="3" t="s">
         <v>8</v>
       </c>
@@ -3278,62 +3380,65 @@
       <c r="Z46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>55300</v>
+      </c>
+      <c r="E47" s="3">
         <v>53700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>50800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>56200</v>
-      </c>
-      <c r="G47" s="3">
-        <v>61900</v>
       </c>
       <c r="H47" s="3">
         <v>61900</v>
       </c>
       <c r="I47" s="3">
+        <v>61900</v>
+      </c>
+      <c r="J47" s="3">
         <v>62200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>69900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>76300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>75600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>71400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>71700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>79500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>98300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>106300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>87300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>93300</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U47" s="3" t="s">
         <v>8</v>
       </c>
@@ -3352,62 +3457,65 @@
       <c r="Z47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>188400</v>
+      </c>
+      <c r="E48" s="3">
         <v>200600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>211200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>225300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>234400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>245700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>252100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>242500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>230300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>226100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>221200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>214000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>208000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>227800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>177500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>119100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>86800</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U48" s="3" t="s">
         <v>8</v>
       </c>
@@ -3426,41 +3534,44 @@
       <c r="Z48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E49" s="3">
         <v>11000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>10500</v>
-      </c>
-      <c r="F49" s="3">
-        <v>10100</v>
       </c>
       <c r="G49" s="3">
         <v>10100</v>
       </c>
       <c r="H49" s="3">
+        <v>10100</v>
+      </c>
+      <c r="I49" s="3">
         <v>9700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>9600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>7900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>8200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>7900</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>8</v>
       </c>
@@ -3473,14 +3584,14 @@
       <c r="Q49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R49" s="3">
-        <v>6300</v>
+      <c r="R49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S49" s="3">
         <v>6300</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>8</v>
+      <c r="T49" s="3">
+        <v>6300</v>
       </c>
       <c r="U49" s="3" t="s">
         <v>8</v>
@@ -3500,8 +3611,11 @@
       <c r="Z49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,56 +3765,59 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>30900</v>
+      </c>
+      <c r="E52" s="3">
         <v>28700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>27100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3800</v>
-      </c>
-      <c r="M52" s="3">
-        <v>11500</v>
       </c>
       <c r="N52" s="3">
         <v>11500</v>
       </c>
       <c r="O52" s="3">
+        <v>11500</v>
+      </c>
+      <c r="P52" s="3">
         <v>11300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>11600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>11300</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S52" s="3" t="s">
         <v>8</v>
       </c>
@@ -3710,8 +3830,8 @@
       <c r="V52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W52" s="3">
-        <v>0</v>
+      <c r="W52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X52" s="3">
         <v>0</v>
@@ -3722,8 +3842,11 @@
       <c r="Z52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,62 +3919,65 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>498700</v>
+      </c>
+      <c r="E54" s="3">
         <v>545600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>597100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>631800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>700600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>710300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>794600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>886100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>960400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1012400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>884800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>941900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>965600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>847800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>885600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1011200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>542500</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U54" s="3" t="s">
         <v>8</v>
       </c>
@@ -3870,8 +3996,11 @@
       <c r="Z54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,62 +4056,63 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>35700</v>
+      </c>
+      <c r="E57" s="3">
         <v>34900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>30500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>36100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>33800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>18300</v>
-      </c>
-      <c r="I57" s="3">
-        <v>19900</v>
       </c>
       <c r="J57" s="3">
         <v>19900</v>
       </c>
       <c r="K57" s="3">
+        <v>19900</v>
+      </c>
+      <c r="L57" s="3">
         <v>22600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>20600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>36800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>35900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>34500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>59700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>52700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>40600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>49800</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U57" s="3" t="s">
         <v>8</v>
       </c>
@@ -4000,62 +4131,65 @@
       <c r="Z57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="E58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>4200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>6200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>8600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>11000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>9700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>10700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>10900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>15700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>24400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>30800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>37500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>35400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>29700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>33500</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U58" s="3" t="s">
         <v>8</v>
       </c>
@@ -4074,62 +4208,65 @@
       <c r="Z58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>76000</v>
+      </c>
+      <c r="E59" s="3">
         <v>77400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>86300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>107500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>114300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>136500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>147300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>145400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>130200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>139400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>134000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>151600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>134700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>120600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>118800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>155500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>88000</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U59" s="3" t="s">
         <v>8</v>
       </c>
@@ -4148,62 +4285,65 @@
       <c r="Z59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>111700</v>
+      </c>
+      <c r="E60" s="3">
         <v>112200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>116800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>147800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>154300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>163300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>178200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>175000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>163500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>170900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>186500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>211900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>200000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>217900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>206900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>225800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>171300</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U60" s="3" t="s">
         <v>8</v>
       </c>
@@ -4222,62 +4362,65 @@
       <c r="Z60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>863400</v>
+      </c>
+      <c r="E61" s="3">
         <v>860200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>849400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>788200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>786000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>731000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>730000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>733200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>733400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>734700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>392900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>391300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>389500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>183900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>173200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>189600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>171500</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
         <v>0</v>
       </c>
@@ -4296,62 +4439,65 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E62" s="3">
         <v>15000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>16100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>17700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>18800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>19400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>20700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>23600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>29400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>26500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>71200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>75400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>78100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>80900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>47400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>45200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>600</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U62" s="3" t="s">
         <v>8</v>
       </c>
@@ -4370,8 +4516,11 @@
       <c r="Z62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,62 +4747,65 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>412200</v>
+      </c>
+      <c r="E66" s="3">
         <v>447100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>485700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>505300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>559300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>557900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>623100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>691600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>747600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>792000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>576700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>627900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>647600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>530400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>552500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>657600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>343300</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U66" s="3" t="s">
         <v>8</v>
       </c>
@@ -4666,8 +4824,11 @@
       <c r="Z66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4893,11 +5061,11 @@
         <v>0</v>
       </c>
       <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
         <v>425200</v>
       </c>
-      <c r="T70" s="3">
-        <v>0</v>
-      </c>
       <c r="U70" s="3">
         <v>0</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,62 +5161,65 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-403300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-385500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-364100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-342300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-320600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-300300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-277700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-248400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-221000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-204200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-175300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-165500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-152900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-143800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-114500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-88300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-226000</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U72" s="3" t="s">
         <v>8</v>
       </c>
@@ -5064,8 +5238,11 @@
       <c r="Z72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,62 +5469,65 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>86500</v>
+      </c>
+      <c r="E76" s="3">
         <v>98600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>111400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>126500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>141200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>152400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>171500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>194500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>212800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>220400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>308100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>314000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>318000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>317300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>333100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>353600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-226000</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U76" s="3" t="s">
         <v>8</v>
       </c>
@@ -5360,8 +5546,11 @@
       <c r="Z76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-21400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-21800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-21700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-20300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-22600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-29300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-27400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-16900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-28900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-9700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-12600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-26800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-29300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-26200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-88300</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
       <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
         <v>-20500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-26000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-15000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-14000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-19800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-9400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,71 +5813,72 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>15500</v>
+      </c>
+      <c r="E83" s="3">
         <v>15900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>16800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>19100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>19600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>18900</v>
-      </c>
-      <c r="I83" s="3">
-        <v>18500</v>
       </c>
       <c r="J83" s="3">
         <v>18500</v>
       </c>
       <c r="K83" s="3">
+        <v>18500</v>
+      </c>
+      <c r="L83" s="3">
         <v>16700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>16500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>17000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>14000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>13900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>11400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>11100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>6500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>9700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>4700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>3900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>2200</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X83" s="3" t="s">
         <v>8</v>
       </c>
@@ -5689,8 +5888,11 @@
       <c r="Z83" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,71 +6273,74 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-32600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-51500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-27600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-17800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-61300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-43500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-38700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-31000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-28300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-14900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>17200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-15400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-70400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-141200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-94100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-97900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-38800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-31600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-35700</v>
       </c>
-      <c r="W89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X89" s="3" t="s">
         <v>8</v>
       </c>
@@ -6133,8 +6350,11 @@
       <c r="Z89" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,71 +6381,72 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-8000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-11800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-7300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-17800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-15100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-36300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-25000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-22300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-23000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-28400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-20900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-19700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-28100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-40000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-34500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-31900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-20600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-10400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-3400</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X91" s="3" t="s">
         <v>8</v>
       </c>
@@ -6235,8 +6456,11 @@
       <c r="Z91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,71 +6610,74 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-8000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-11800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-7300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-17800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-15100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-36300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-25000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-22300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-23000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-28400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-20900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-19700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-28100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-40000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-28200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-38100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-20600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-21900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-14000</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X94" s="3" t="s">
         <v>8</v>
       </c>
@@ -6457,8 +6687,11 @@
       <c r="Z94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,71 +7024,74 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>8400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>61400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-3300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>49000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-3700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-3100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-4900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-5100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>168800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-13000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-12200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>199700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>4500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-47900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>520800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-28800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-13400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>88100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>318900</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X100" s="3" t="s">
         <v>8</v>
       </c>
@@ -6855,16 +7101,19 @@
       <c r="Z100" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F101" s="3">
         <v>100</v>
@@ -6873,23 +7122,23 @@
         <v>100</v>
       </c>
       <c r="H101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>400</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N101" s="3" t="s">
         <v>8</v>
       </c>
@@ -6905,8 +7154,8 @@
       <c r="R101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
+      <c r="S101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T101" s="3">
         <v>0</v>
@@ -6929,71 +7178,74 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-28300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-32100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-38100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>13500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-80100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-82800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-69000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-57900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>117800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-56300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-15900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>164500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-94000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-229100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>398500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-164800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-72700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>34600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>269200</v>
       </c>
-      <c r="W102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X102" s="3" t="s">
         <v>8</v>
       </c>
@@ -7001,6 +7253,9 @@
         <v>8</v>
       </c>
       <c r="Z102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA102" s="3" t="s">
         <v>8</v>
       </c>
     </row>
